--- a/Projects/CCRU_SAND/Data/Supermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Supermarket PoS 2018.xlsx
@@ -34,6 +34,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -45,156 +46,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="636">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>To include in first calculation?</t>
-  </si>
-  <si>
-    <t>RD38010002</t>
-  </si>
-  <si>
-    <t>Supermarket</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="637">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include in first calculation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5
@@ -234,262 +235,262 @@
 39</t>
   </si>
   <si>
-    <t>Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Sprite - 2L</t>
-  </si>
-  <si>
-    <t>Спрайт - 2л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 1.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.9L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л слим</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.9л</t>
-  </si>
-  <si>
-    <t>Schweppes Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л стекло</t>
-  </si>
-  <si>
-    <t>Schweppes Mojito - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Мохито - 1л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 1.5л</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>41
+    <t xml:space="preserve">Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Mojito - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Мохито - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41
 42
 43
 44
@@ -499,61 +500,61 @@
 48</t>
   </si>
   <si>
-    <t>BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Apple - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Яблоко - 0.5л</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>50
+    <t xml:space="preserve">BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Apple - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Яблоко - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50
 51
 52
 53
@@ -561,49 +562,49 @@
 55</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t>Burn Passion Punch - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Тропический микс - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Rossi - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Росси - 0.5л</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
-  </si>
-  <si>
-    <t>57
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Passion Punch - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Тропический микс - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Rossi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Росси - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57
 58
 59
 60
@@ -614,67 +615,67 @@
 65</t>
   </si>
   <si>
-    <t>Fuze Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.33л</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>67
+    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67
 68
 69
 70
@@ -728,370 +729,370 @@
 118</t>
   </si>
   <si>
-    <t>Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Mango-Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Манго-Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 2л</t>
-  </si>
-  <si>
-    <t>Rich - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Peach - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Персик - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Citrus - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pomegranate-Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Гранат-Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pear - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Груша - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Vegetable Mix - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Овощной микс - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Гранат - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Grapefruit - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Грейпфрут - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Berry-Honey - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Медовые ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Mors Cloudberry-Cowberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Морс Брусника-Морошка - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.45л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 1 - 0.11л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie2 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 2 - 0.11л</t>
-  </si>
-  <si>
-    <t>Pulpy - Grapefruit - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Грейпфрут - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pineapple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Ананас - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 20</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>Warm Shelf</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>SSD полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>121
+    <t xml:space="preserve">Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Mango-Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Манго-Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Peach - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Персик - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Citrus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Гранат-Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pear - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Vegetable Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Овощной микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Гранат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Grapefruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Грейпфрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Berry-Honey - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Медовые ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Mors Cloudberry-Cowberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Морс Брусника-Морошка - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie2 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 2 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Grapefruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Грейпфрут - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pineapple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Ананас - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121
 122
 123
 124
@@ -1100,717 +1101,720 @@
 127</t>
   </si>
   <si>
-    <t>Shelf: SKU on Eye level</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t>5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L, Sprite - 1L</t>
-  </si>
-  <si>
-    <t>5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L, Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t>5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t>STANDARD 21</t>
-  </si>
-  <si>
-    <t>Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Water Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Water Shelf: BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>Вода полка: БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 23</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Сок полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Сок полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>133
+    <t xml:space="preserve">Shelf: SKU on Eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L, Sprite - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L, Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133
 134
 135
 136
 137</t>
   </si>
   <si>
-    <t>Juice Shelf: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 24</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Доля полки</t>
-  </si>
-  <si>
-    <t>ice tea</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>140
+    <t xml:space="preserve">Juice Shelf: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140
 141</t>
   </si>
   <si>
-    <t>Ice Tea Shelf: Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 25</t>
-  </si>
-  <si>
-    <t>Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>STANDARD 19</t>
-  </si>
-  <si>
-    <t>SSD Display 1st</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t>SSD Displays</t>
-  </si>
-  <si>
-    <t>144
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144
 145
 146</t>
   </si>
   <si>
-    <t>SSD Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>number of scenes</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Lead SKU</t>
-  </si>
-  <si>
-    <t>Coca-Cola 1.5L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 1st</t>
-  </si>
-  <si>
-    <t>148
+    <t xml:space="preserve">SSD Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 1.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148
 149
 150</t>
   </si>
   <si>
-    <t>Displays Merch. Standards</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>Juice Displays</t>
-  </si>
-  <si>
-    <t>152
+    <t xml:space="preserve">Displays Merch. Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152
 153
 154</t>
   </si>
   <si>
-    <t>Juice Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>Produce</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>155
+    <t xml:space="preserve">Juice Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155
 156</t>
   </si>
   <si>
-    <t>Juice Display 1st: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed Juice Display 1st</t>
-  </si>
-  <si>
-    <t>158
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158
 159
 160
 161</t>
   </si>
   <si>
-    <t>Juice Display 1st: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й</t>
-  </si>
-  <si>
-    <t>163
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163
 164
 165</t>
   </si>
   <si>
-    <t>SSD Display 2d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t>Deli</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 2d</t>
-  </si>
-  <si>
-    <t>167
+    <t xml:space="preserve">SSD Display 2d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167
 168</t>
   </si>
   <si>
-    <t>SSD Display 2d: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Tea Display</t>
-  </si>
-  <si>
-    <t>Чай Дисплей</t>
-  </si>
-  <si>
-    <t>Tea Displays</t>
-  </si>
-  <si>
-    <t>170
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170
 171
 172</t>
   </si>
   <si>
-    <t>Tea Display: Facings</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Tea Display: Zone</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Confectionary/Biscuits section</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
-  </si>
-  <si>
-    <t>173
+    <t xml:space="preserve">Tea Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confectionary/Biscuits section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173
 174</t>
   </si>
   <si>
-    <t>Tea Display: Lead Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Water Display</t>
-  </si>
-  <si>
-    <t>Вода Дисплей</t>
-  </si>
-  <si>
-    <t>Water Displays</t>
-  </si>
-  <si>
-    <t>176
+    <t xml:space="preserve">Tea Display: Lead Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176
 177
 178</t>
   </si>
   <si>
-    <t>Water Display: Facings</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Water Display: Zone</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Entrance of Water section</t>
-  </si>
-  <si>
-    <t>Water Display: Lead SKU BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 3d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й</t>
-  </si>
-  <si>
-    <t>180
+    <t xml:space="preserve">Water Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance of Water section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display: Lead SKU BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180
 181
 182</t>
   </si>
   <si>
-    <t>SSD Display 3d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 3d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Зона</t>
-  </si>
-  <si>
-    <t>Entrance of SSD section</t>
-  </si>
-  <si>
-    <t>SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L share on Display</t>
-  </si>
-  <si>
-    <t>Energy Display</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей</t>
-  </si>
-  <si>
-    <t>Energy Displays</t>
-  </si>
-  <si>
-    <t>184
+    <t xml:space="preserve">SSD Display 3d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance of SSD section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184
 185
 186</t>
   </si>
   <si>
-    <t>Energy Display: Facings</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Energy Display: Zone</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Beer Section</t>
-  </si>
-  <si>
-    <t>Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>187
+    <t xml:space="preserve">Energy Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beer Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187
 188</t>
   </si>
   <si>
-    <t>Energy Display: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t>Energy Display: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>190
+    <t xml:space="preserve">Energy Display: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190
 191</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of coolers with facings target and fullness target</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>NUM_SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>Cooler: Max 23</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 23 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t>195
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of coolers with facings target and fullness target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195
 196
 197
 198
@@ -1828,292 +1832,292 @@
 210</t>
   </si>
   <si>
-    <t>Cooler: BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Зеленый - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>5449000233615, 5449000189370</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Черный - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>5449000189301, 5449000189332, 5449000193124</t>
-  </si>
-  <si>
-    <t>Cooler: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler:  w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>RGM Activations</t>
-  </si>
-  <si>
-    <t>RGM Активации</t>
-  </si>
-  <si>
-    <t>213
+    <t xml:space="preserve">Cooler: BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Зеленый - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233615, 5449000189370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Черный - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler:  w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213
 214
 215
 216</t>
   </si>
   <si>
-    <t>RGM Activations SAP</t>
-  </si>
-  <si>
-    <t>RGM Activations: SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: SSD с едой</t>
-  </si>
-  <si>
-    <t>SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Activations: Juice &amp; Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: Сок с едой</t>
-  </si>
-  <si>
-    <t>Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
-  </si>
-  <si>
-    <t>RGM Activations: On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Активации: На ходу</t>
-  </si>
-  <si>
-    <t>On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t>RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t>Screen time</t>
-  </si>
-  <si>
-    <t>Promo Displays</t>
-  </si>
-  <si>
-    <t>Промо дисплеи</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>Promo displays SAP</t>
-  </si>
-  <si>
-    <t>Promo Displays: Facings</t>
-  </si>
-  <si>
-    <t>Промо дисплеи: Фейсинги</t>
-  </si>
-  <si>
-    <t>check_number_of_scenes_with_facings_target</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>LOCAL 2</t>
-  </si>
-  <si>
-    <t>number of KPI Passed</t>
-  </si>
-  <si>
-    <t>Session level</t>
-  </si>
-  <si>
-    <t>LOCAL 6</t>
-  </si>
-  <si>
-    <t>KPI result</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>sum of KPI result</t>
-  </si>
-  <si>
-    <t>LOCAL 5</t>
-  </si>
-  <si>
-    <t>LOCAL 7</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t>Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t>Number of doors according to guide for all Coolers</t>
-  </si>
-  <si>
-    <t>Scene level</t>
-  </si>
-  <si>
-    <t>Attribute 1</t>
-  </si>
-  <si>
-    <t>POP Activated</t>
-  </si>
-  <si>
-    <t>Y for all Displays</t>
-  </si>
-  <si>
-    <t>Attribute 2</t>
-  </si>
-  <si>
-    <t>Experiantial Activation</t>
-  </si>
-  <si>
-    <t>N for all Displays</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t>Coolers and Displays Zones</t>
-  </si>
-  <si>
-    <t>Scene attribute for all Cooler and Displays</t>
-  </si>
-  <si>
-    <t>Attribute 3</t>
-  </si>
-  <si>
-    <t>Displays Priority Occasion</t>
-  </si>
-  <si>
-    <t>No_O_A</t>
-  </si>
-  <si>
-    <t>MealsAtHo</t>
-  </si>
-  <si>
-    <t>MeTimeAtH</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
+    <t xml:space="preserve">RGM Activations SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Juice &amp; Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: Сок с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: На ходу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: У Экрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo displays SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of doors according to guide for all Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiantial Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers and Displays Zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene attribute for all Cooler and Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays Priority Occasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MealsAtHo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeTimeAtH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
@@ -2342,7 +2346,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2739,6 +2743,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2923,21 +2935,21 @@
   <dimension ref="A1:AO235"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="V175" activeCellId="0" sqref="V175"/>
+      <selection pane="bottomLeft" activeCell="AC195" activeCellId="0" sqref="AC195:AF195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19304,14 +19316,18 @@
       <c r="AB195" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AC195" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD195" s="61" t="n">
+      <c r="AC195" s="77" t="s">
+        <v>540</v>
+      </c>
+      <c r="AD195" s="99" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AE195" s="48"/>
-      <c r="AF195" s="48"/>
+      <c r="AE195" s="100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF195" s="76" t="n">
+        <v>1</v>
+      </c>
       <c r="AG195" s="97" t="s">
         <v>533</v>
       </c>
@@ -19327,7 +19343,7 @@
         <v>194</v>
       </c>
       <c r="AM195" s="65" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN195" s="86" t="s">
         <v>534</v>
@@ -19351,10 +19367,10 @@
         <v>306</v>
       </c>
       <c r="F196" s="47" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G196" s="27" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H196" s="48" t="s">
         <v>52</v>
@@ -19436,10 +19452,10 @@
         <v>306</v>
       </c>
       <c r="F197" s="47" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G197" s="27" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H197" s="48" t="s">
         <v>52</v>
@@ -19521,10 +19537,10 @@
         <v>306</v>
       </c>
       <c r="F198" s="47" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G198" s="27" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H198" s="48" t="s">
         <v>52</v>
@@ -19606,10 +19622,10 @@
         <v>306</v>
       </c>
       <c r="F199" s="47" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G199" s="27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H199" s="48" t="s">
         <v>52</v>
@@ -19691,10 +19707,10 @@
         <v>306</v>
       </c>
       <c r="F200" s="47" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G200" s="27" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H200" s="48" t="s">
         <v>52</v>
@@ -19776,10 +19792,10 @@
         <v>306</v>
       </c>
       <c r="F201" s="47" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G201" s="27" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H201" s="48" t="s">
         <v>52</v>
@@ -19861,10 +19877,10 @@
         <v>306</v>
       </c>
       <c r="F202" s="47" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G202" s="27" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H202" s="48" t="s">
         <v>52</v>
@@ -19946,10 +19962,10 @@
         <v>306</v>
       </c>
       <c r="F203" s="47" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G203" s="27" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H203" s="48" t="s">
         <v>52</v>
@@ -20031,10 +20047,10 @@
         <v>306</v>
       </c>
       <c r="F204" s="47" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G204" s="27" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H204" s="48" t="s">
         <v>52</v>
@@ -20116,10 +20132,10 @@
         <v>306</v>
       </c>
       <c r="F205" s="47" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G205" s="27" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H205" s="48" t="s">
         <v>52</v>
@@ -20201,10 +20217,10 @@
         <v>306</v>
       </c>
       <c r="F206" s="47" t="s">
-        <v>561</v>
-      </c>
-      <c r="G206" s="99" t="s">
         <v>562</v>
+      </c>
+      <c r="G206" s="101" t="s">
+        <v>563</v>
       </c>
       <c r="H206" s="48" t="s">
         <v>52</v>
@@ -20215,10 +20231,10 @@
       <c r="J206" s="48"/>
       <c r="K206" s="48"/>
       <c r="L206" s="35" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M206" s="57" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N206" s="50"/>
       <c r="O206" s="50"/>
@@ -20286,10 +20302,10 @@
         <v>306</v>
       </c>
       <c r="F207" s="47" t="s">
-        <v>565</v>
-      </c>
-      <c r="G207" s="99" t="s">
         <v>566</v>
+      </c>
+      <c r="G207" s="101" t="s">
+        <v>567</v>
       </c>
       <c r="H207" s="48" t="s">
         <v>52</v>
@@ -20300,10 +20316,10 @@
       <c r="J207" s="48"/>
       <c r="K207" s="48"/>
       <c r="L207" s="35" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M207" s="57" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N207" s="50"/>
       <c r="O207" s="50"/>
@@ -20371,10 +20387,10 @@
         <v>306</v>
       </c>
       <c r="F208" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="G208" s="99" t="s">
         <v>570</v>
+      </c>
+      <c r="G208" s="101" t="s">
+        <v>571</v>
       </c>
       <c r="H208" s="48" t="s">
         <v>52</v>
@@ -20456,10 +20472,10 @@
         <v>306</v>
       </c>
       <c r="F209" s="47" t="s">
-        <v>571</v>
-      </c>
-      <c r="G209" s="99" t="s">
         <v>572</v>
+      </c>
+      <c r="G209" s="101" t="s">
+        <v>573</v>
       </c>
       <c r="H209" s="48" t="s">
         <v>52</v>
@@ -20541,10 +20557,10 @@
         <v>306</v>
       </c>
       <c r="F210" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="G210" s="99" t="s">
         <v>574</v>
+      </c>
+      <c r="G210" s="101" t="s">
+        <v>575</v>
       </c>
       <c r="H210" s="48" t="s">
         <v>52</v>
@@ -20626,10 +20642,10 @@
         <v>306</v>
       </c>
       <c r="F211" s="47" t="s">
-        <v>575</v>
-      </c>
-      <c r="G211" s="99" t="s">
         <v>576</v>
+      </c>
+      <c r="G211" s="101" t="s">
+        <v>577</v>
       </c>
       <c r="H211" s="48" t="s">
         <v>52</v>
@@ -20711,13 +20727,13 @@
         <v>306</v>
       </c>
       <c r="F212" s="47" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G212" s="53" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H212" s="58" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I212" s="48"/>
       <c r="J212" s="48"/>
@@ -20792,10 +20808,10 @@
         <v>306</v>
       </c>
       <c r="F213" s="47" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G213" s="53" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H213" s="47" t="s">
         <v>309</v>
@@ -20844,11 +20860,11 @@
       <c r="AL213" s="31" t="n">
         <v>212</v>
       </c>
-      <c r="AM213" s="100" t="s">
-        <v>582</v>
-      </c>
-      <c r="AN213" s="101" t="s">
+      <c r="AM213" s="102" t="s">
         <v>583</v>
+      </c>
+      <c r="AN213" s="103" t="s">
+        <v>584</v>
       </c>
       <c r="AO213" s="12"/>
     </row>
@@ -20869,10 +20885,10 @@
         <v>306</v>
       </c>
       <c r="F214" s="47" t="s">
-        <v>584</v>
-      </c>
-      <c r="G214" s="102" t="s">
         <v>585</v>
+      </c>
+      <c r="G214" s="104" t="s">
+        <v>586</v>
       </c>
       <c r="H214" s="47" t="s">
         <v>386</v>
@@ -20897,11 +20913,11 @@
       <c r="T214" s="48"/>
       <c r="U214" s="48"/>
       <c r="V214" s="48"/>
-      <c r="W214" s="103" t="s">
-        <v>586</v>
+      <c r="W214" s="105" t="s">
+        <v>587</v>
       </c>
       <c r="X214" s="48"/>
-      <c r="Y214" s="104"/>
+      <c r="Y214" s="106"/>
       <c r="Z214" s="48"/>
       <c r="AA214" s="48"/>
       <c r="AB214" s="35" t="s">
@@ -20927,7 +20943,7 @@
       </c>
       <c r="AM214" s="47"/>
       <c r="AN214" s="47" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AO214" s="12"/>
     </row>
@@ -20948,10 +20964,10 @@
         <v>306</v>
       </c>
       <c r="F215" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="G215" s="102" t="s">
         <v>588</v>
+      </c>
+      <c r="G215" s="104" t="s">
+        <v>589</v>
       </c>
       <c r="H215" s="47" t="s">
         <v>386</v>
@@ -20976,11 +20992,11 @@
       <c r="T215" s="48"/>
       <c r="U215" s="48"/>
       <c r="V215" s="48"/>
-      <c r="W215" s="103" t="s">
-        <v>589</v>
+      <c r="W215" s="105" t="s">
+        <v>590</v>
       </c>
       <c r="X215" s="48"/>
-      <c r="Y215" s="104"/>
+      <c r="Y215" s="106"/>
       <c r="Z215" s="48"/>
       <c r="AA215" s="48"/>
       <c r="AB215" s="35" t="s">
@@ -21006,7 +21022,7 @@
       </c>
       <c r="AM215" s="47"/>
       <c r="AN215" s="47" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AO215" s="12"/>
     </row>
@@ -21027,10 +21043,10 @@
         <v>306</v>
       </c>
       <c r="F216" s="47" t="s">
-        <v>590</v>
-      </c>
-      <c r="G216" s="102" t="s">
         <v>591</v>
+      </c>
+      <c r="G216" s="104" t="s">
+        <v>592</v>
       </c>
       <c r="H216" s="47" t="s">
         <v>386</v>
@@ -21055,11 +21071,11 @@
       <c r="T216" s="48"/>
       <c r="U216" s="48"/>
       <c r="V216" s="48"/>
-      <c r="W216" s="103" t="s">
-        <v>592</v>
+      <c r="W216" s="105" t="s">
+        <v>593</v>
       </c>
       <c r="X216" s="48"/>
-      <c r="Y216" s="104"/>
+      <c r="Y216" s="106"/>
       <c r="Z216" s="48"/>
       <c r="AA216" s="48"/>
       <c r="AB216" s="35" t="s">
@@ -21085,7 +21101,7 @@
       </c>
       <c r="AM216" s="47"/>
       <c r="AN216" s="47" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AO216" s="12"/>
     </row>
@@ -21106,10 +21122,10 @@
         <v>306</v>
       </c>
       <c r="F217" s="47" t="s">
-        <v>593</v>
-      </c>
-      <c r="G217" s="102" t="s">
         <v>594</v>
+      </c>
+      <c r="G217" s="104" t="s">
+        <v>595</v>
       </c>
       <c r="H217" s="47" t="s">
         <v>386</v>
@@ -21134,11 +21150,11 @@
       <c r="T217" s="48"/>
       <c r="U217" s="48"/>
       <c r="V217" s="48"/>
-      <c r="W217" s="103" t="s">
-        <v>595</v>
+      <c r="W217" s="105" t="s">
+        <v>596</v>
       </c>
       <c r="X217" s="48"/>
-      <c r="Y217" s="104"/>
+      <c r="Y217" s="106"/>
       <c r="Z217" s="48"/>
       <c r="AA217" s="48"/>
       <c r="AB217" s="35" t="s">
@@ -21164,7 +21180,7 @@
       </c>
       <c r="AM217" s="47"/>
       <c r="AN217" s="47" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AO217" s="35"/>
     </row>
@@ -21181,14 +21197,14 @@
       <c r="D218" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="E218" s="105" t="s">
+      <c r="E218" s="107" t="s">
         <v>306</v>
       </c>
       <c r="F218" s="47" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G218" s="53" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H218" s="71" t="s">
         <v>515</v>
@@ -21213,7 +21229,7 @@
       <c r="T218" s="48"/>
       <c r="U218" s="48"/>
       <c r="V218" s="48" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="W218" s="48"/>
       <c r="X218" s="48"/>
@@ -21241,11 +21257,11 @@
       <c r="AL218" s="22" t="n">
         <v>217</v>
       </c>
-      <c r="AM218" s="106" t="s">
-        <v>598</v>
+      <c r="AM218" s="108" t="s">
+        <v>599</v>
       </c>
       <c r="AN218" s="86" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AO218" s="12"/>
     </row>
@@ -21262,17 +21278,17 @@
       <c r="D219" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="E219" s="105" t="s">
+      <c r="E219" s="107" t="s">
         <v>306</v>
       </c>
       <c r="F219" s="47" t="s">
-        <v>600</v>
-      </c>
-      <c r="G219" s="102" t="s">
         <v>601</v>
       </c>
-      <c r="H219" s="107" t="s">
+      <c r="G219" s="104" t="s">
         <v>602</v>
+      </c>
+      <c r="H219" s="109" t="s">
+        <v>603</v>
       </c>
       <c r="I219" s="48" t="n">
         <v>1</v>
@@ -21300,7 +21316,7 @@
       <c r="T219" s="48"/>
       <c r="U219" s="48"/>
       <c r="V219" s="48" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="W219" s="48"/>
       <c r="X219" s="48"/>
@@ -21311,7 +21327,7 @@
         <v>48</v>
       </c>
       <c r="AC219" s="48" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AD219" s="61" t="n">
         <v>0</v>
@@ -21329,8 +21345,8 @@
         <v>218</v>
       </c>
       <c r="AM219" s="12"/>
-      <c r="AN219" s="108" t="s">
-        <v>596</v>
+      <c r="AN219" s="110" t="s">
+        <v>597</v>
       </c>
       <c r="AO219" s="12"/>
     </row>
@@ -21344,60 +21360,60 @@
       <c r="C220" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D220" s="109" t="s">
-        <v>604</v>
-      </c>
-      <c r="E220" s="110" t="s">
+      <c r="D220" s="111" t="s">
         <v>605</v>
       </c>
-      <c r="F220" s="111" t="s">
+      <c r="E220" s="112" t="s">
+        <v>606</v>
+      </c>
+      <c r="F220" s="113" t="s">
         <v>313</v>
       </c>
-      <c r="G220" s="112"/>
-      <c r="H220" s="113" t="s">
-        <v>606</v>
-      </c>
-      <c r="I220" s="114" t="s">
+      <c r="G220" s="114"/>
+      <c r="H220" s="115" t="s">
         <v>607</v>
       </c>
-      <c r="J220" s="112"/>
-      <c r="K220" s="112"/>
-      <c r="L220" s="112"/>
-      <c r="M220" s="112"/>
-      <c r="N220" s="112"/>
-      <c r="O220" s="112"/>
-      <c r="P220" s="112"/>
-      <c r="Q220" s="112"/>
-      <c r="R220" s="112"/>
-      <c r="S220" s="112"/>
-      <c r="T220" s="112"/>
-      <c r="U220" s="112"/>
-      <c r="V220" s="112"/>
-      <c r="W220" s="112"/>
-      <c r="X220" s="112"/>
-      <c r="Y220" s="112"/>
-      <c r="Z220" s="112"/>
-      <c r="AA220" s="112"/>
-      <c r="AB220" s="112"/>
-      <c r="AC220" s="112"/>
-      <c r="AD220" s="115" t="n">
+      <c r="I220" s="116" t="s">
+        <v>608</v>
+      </c>
+      <c r="J220" s="114"/>
+      <c r="K220" s="114"/>
+      <c r="L220" s="114"/>
+      <c r="M220" s="114"/>
+      <c r="N220" s="114"/>
+      <c r="O220" s="114"/>
+      <c r="P220" s="114"/>
+      <c r="Q220" s="114"/>
+      <c r="R220" s="114"/>
+      <c r="S220" s="114"/>
+      <c r="T220" s="114"/>
+      <c r="U220" s="114"/>
+      <c r="V220" s="114"/>
+      <c r="W220" s="114"/>
+      <c r="X220" s="114"/>
+      <c r="Y220" s="114"/>
+      <c r="Z220" s="114"/>
+      <c r="AA220" s="114"/>
+      <c r="AB220" s="114"/>
+      <c r="AC220" s="114"/>
+      <c r="AD220" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="AE220" s="112"/>
-      <c r="AF220" s="112"/>
-      <c r="AG220" s="112"/>
-      <c r="AH220" s="112"/>
-      <c r="AI220" s="112"/>
-      <c r="AJ220" s="116" t="s">
+      <c r="AE220" s="114"/>
+      <c r="AF220" s="114"/>
+      <c r="AG220" s="114"/>
+      <c r="AH220" s="114"/>
+      <c r="AI220" s="114"/>
+      <c r="AJ220" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="AK220" s="116"/>
+      <c r="AK220" s="118"/>
       <c r="AL220" s="22" t="n">
         <v>219</v>
       </c>
-      <c r="AM220" s="112"/>
-      <c r="AN220" s="112"/>
-      <c r="AO220" s="112"/>
+      <c r="AM220" s="114"/>
+      <c r="AN220" s="114"/>
+      <c r="AO220" s="114"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="25" t="n">
@@ -21409,60 +21425,60 @@
       <c r="C221" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D221" s="109" t="s">
-        <v>604</v>
+      <c r="D221" s="111" t="s">
+        <v>605</v>
       </c>
       <c r="E221" s="86" t="s">
+        <v>609</v>
+      </c>
+      <c r="F221" s="119" t="s">
+        <v>584</v>
+      </c>
+      <c r="G221" s="114"/>
+      <c r="H221" s="114" t="s">
+        <v>610</v>
+      </c>
+      <c r="I221" s="116" t="s">
         <v>608</v>
       </c>
-      <c r="F221" s="117" t="s">
-        <v>583</v>
-      </c>
-      <c r="G221" s="112"/>
-      <c r="H221" s="112" t="s">
-        <v>609</v>
-      </c>
-      <c r="I221" s="114" t="s">
-        <v>607</v>
-      </c>
-      <c r="J221" s="112"/>
-      <c r="K221" s="112"/>
-      <c r="L221" s="112"/>
-      <c r="M221" s="112"/>
-      <c r="N221" s="112"/>
-      <c r="O221" s="112"/>
-      <c r="P221" s="112"/>
-      <c r="Q221" s="112"/>
-      <c r="R221" s="112"/>
-      <c r="S221" s="112"/>
-      <c r="T221" s="112"/>
-      <c r="U221" s="112"/>
-      <c r="V221" s="112"/>
-      <c r="W221" s="112"/>
-      <c r="X221" s="112"/>
-      <c r="Y221" s="112"/>
-      <c r="Z221" s="112"/>
-      <c r="AA221" s="112"/>
-      <c r="AB221" s="112"/>
-      <c r="AC221" s="112"/>
-      <c r="AD221" s="115" t="n">
+      <c r="J221" s="114"/>
+      <c r="K221" s="114"/>
+      <c r="L221" s="114"/>
+      <c r="M221" s="114"/>
+      <c r="N221" s="114"/>
+      <c r="O221" s="114"/>
+      <c r="P221" s="114"/>
+      <c r="Q221" s="114"/>
+      <c r="R221" s="114"/>
+      <c r="S221" s="114"/>
+      <c r="T221" s="114"/>
+      <c r="U221" s="114"/>
+      <c r="V221" s="114"/>
+      <c r="W221" s="114"/>
+      <c r="X221" s="114"/>
+      <c r="Y221" s="114"/>
+      <c r="Z221" s="114"/>
+      <c r="AA221" s="114"/>
+      <c r="AB221" s="114"/>
+      <c r="AC221" s="114"/>
+      <c r="AD221" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="AE221" s="112"/>
-      <c r="AF221" s="112"/>
-      <c r="AG221" s="112"/>
-      <c r="AH221" s="112"/>
-      <c r="AI221" s="112"/>
-      <c r="AJ221" s="116" t="s">
+      <c r="AE221" s="114"/>
+      <c r="AF221" s="114"/>
+      <c r="AG221" s="114"/>
+      <c r="AH221" s="114"/>
+      <c r="AI221" s="114"/>
+      <c r="AJ221" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="AK221" s="116"/>
+      <c r="AK221" s="118"/>
       <c r="AL221" s="31" t="n">
         <v>220</v>
       </c>
-      <c r="AM221" s="112"/>
-      <c r="AN221" s="112"/>
-      <c r="AO221" s="112"/>
+      <c r="AM221" s="114"/>
+      <c r="AN221" s="114"/>
+      <c r="AO221" s="114"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="n">
@@ -21474,60 +21490,60 @@
       <c r="C222" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D222" s="118" t="s">
-        <v>604</v>
+      <c r="D222" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E222" s="86" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F222" s="86" t="s">
         <v>534</v>
       </c>
-      <c r="G222" s="112"/>
-      <c r="H222" s="112" t="s">
-        <v>611</v>
-      </c>
-      <c r="I222" s="114" t="s">
-        <v>607</v>
-      </c>
-      <c r="J222" s="112"/>
-      <c r="K222" s="112"/>
-      <c r="L222" s="112"/>
-      <c r="M222" s="112"/>
-      <c r="N222" s="112"/>
-      <c r="O222" s="112"/>
-      <c r="P222" s="112"/>
-      <c r="Q222" s="112"/>
-      <c r="R222" s="112"/>
-      <c r="S222" s="112"/>
-      <c r="T222" s="112"/>
-      <c r="U222" s="112"/>
-      <c r="V222" s="112"/>
-      <c r="W222" s="112"/>
-      <c r="X222" s="112"/>
-      <c r="Y222" s="112"/>
-      <c r="Z222" s="112"/>
-      <c r="AA222" s="112"/>
-      <c r="AB222" s="112"/>
-      <c r="AC222" s="112"/>
-      <c r="AD222" s="119" t="n">
+      <c r="G222" s="114"/>
+      <c r="H222" s="114" t="s">
+        <v>612</v>
+      </c>
+      <c r="I222" s="116" t="s">
+        <v>608</v>
+      </c>
+      <c r="J222" s="114"/>
+      <c r="K222" s="114"/>
+      <c r="L222" s="114"/>
+      <c r="M222" s="114"/>
+      <c r="N222" s="114"/>
+      <c r="O222" s="114"/>
+      <c r="P222" s="114"/>
+      <c r="Q222" s="114"/>
+      <c r="R222" s="114"/>
+      <c r="S222" s="114"/>
+      <c r="T222" s="114"/>
+      <c r="U222" s="114"/>
+      <c r="V222" s="114"/>
+      <c r="W222" s="114"/>
+      <c r="X222" s="114"/>
+      <c r="Y222" s="114"/>
+      <c r="Z222" s="114"/>
+      <c r="AA222" s="114"/>
+      <c r="AB222" s="114"/>
+      <c r="AC222" s="114"/>
+      <c r="AD222" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="AE222" s="112"/>
-      <c r="AF222" s="112"/>
-      <c r="AG222" s="112"/>
-      <c r="AH222" s="112"/>
-      <c r="AI222" s="112"/>
-      <c r="AJ222" s="116" t="s">
+      <c r="AE222" s="114"/>
+      <c r="AF222" s="114"/>
+      <c r="AG222" s="114"/>
+      <c r="AH222" s="114"/>
+      <c r="AI222" s="114"/>
+      <c r="AJ222" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="AK222" s="116"/>
+      <c r="AK222" s="118"/>
       <c r="AL222" s="22" t="n">
         <v>221</v>
       </c>
-      <c r="AM222" s="112"/>
-      <c r="AN222" s="112"/>
-      <c r="AO222" s="112"/>
+      <c r="AM222" s="114"/>
+      <c r="AN222" s="114"/>
+      <c r="AO222" s="114"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="25" t="n">
@@ -21539,58 +21555,58 @@
       <c r="C223" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D223" s="118" t="s">
-        <v>604</v>
+      <c r="D223" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E223" s="86" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F223" s="86" t="s">
-        <v>599</v>
-      </c>
-      <c r="G223" s="112"/>
-      <c r="H223" s="112" t="s">
-        <v>609</v>
-      </c>
-      <c r="I223" s="114" t="s">
-        <v>607</v>
-      </c>
-      <c r="J223" s="112"/>
-      <c r="K223" s="112"/>
-      <c r="L223" s="112"/>
-      <c r="M223" s="112"/>
-      <c r="N223" s="112"/>
-      <c r="O223" s="112"/>
-      <c r="P223" s="112"/>
-      <c r="Q223" s="112"/>
-      <c r="R223" s="112"/>
-      <c r="S223" s="112"/>
-      <c r="T223" s="112"/>
-      <c r="U223" s="112"/>
-      <c r="V223" s="112"/>
-      <c r="W223" s="112"/>
-      <c r="X223" s="112"/>
-      <c r="Y223" s="112"/>
-      <c r="Z223" s="112"/>
-      <c r="AA223" s="112"/>
-      <c r="AB223" s="112"/>
-      <c r="AC223" s="112"/>
-      <c r="AD223" s="119" t="n">
+        <v>600</v>
+      </c>
+      <c r="G223" s="114"/>
+      <c r="H223" s="114" t="s">
+        <v>610</v>
+      </c>
+      <c r="I223" s="116" t="s">
+        <v>608</v>
+      </c>
+      <c r="J223" s="114"/>
+      <c r="K223" s="114"/>
+      <c r="L223" s="114"/>
+      <c r="M223" s="114"/>
+      <c r="N223" s="114"/>
+      <c r="O223" s="114"/>
+      <c r="P223" s="114"/>
+      <c r="Q223" s="114"/>
+      <c r="R223" s="114"/>
+      <c r="S223" s="114"/>
+      <c r="T223" s="114"/>
+      <c r="U223" s="114"/>
+      <c r="V223" s="114"/>
+      <c r="W223" s="114"/>
+      <c r="X223" s="114"/>
+      <c r="Y223" s="114"/>
+      <c r="Z223" s="114"/>
+      <c r="AA223" s="114"/>
+      <c r="AB223" s="114"/>
+      <c r="AC223" s="114"/>
+      <c r="AD223" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="AE223" s="112"/>
-      <c r="AF223" s="112"/>
-      <c r="AG223" s="112"/>
-      <c r="AH223" s="112"/>
-      <c r="AI223" s="112"/>
-      <c r="AJ223" s="116"/>
-      <c r="AK223" s="116"/>
+      <c r="AE223" s="114"/>
+      <c r="AF223" s="114"/>
+      <c r="AG223" s="114"/>
+      <c r="AH223" s="114"/>
+      <c r="AI223" s="114"/>
+      <c r="AJ223" s="118"/>
+      <c r="AK223" s="118"/>
       <c r="AL223" s="31" t="n">
         <v>222</v>
       </c>
-      <c r="AM223" s="112"/>
-      <c r="AN223" s="112"/>
-      <c r="AO223" s="112"/>
+      <c r="AM223" s="114"/>
+      <c r="AN223" s="114"/>
+      <c r="AO223" s="114"/>
     </row>
     <row r="224" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="15" t="n">
@@ -21602,58 +21618,58 @@
       <c r="C224" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D224" s="118" t="s">
-        <v>604</v>
+      <c r="D224" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E224" s="86" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F224" s="86" t="s">
         <v>397</v>
       </c>
-      <c r="G224" s="112"/>
-      <c r="H224" s="113" t="s">
-        <v>606</v>
-      </c>
-      <c r="I224" s="114" t="s">
+      <c r="G224" s="114"/>
+      <c r="H224" s="115" t="s">
         <v>607</v>
       </c>
-      <c r="J224" s="112"/>
-      <c r="K224" s="112"/>
-      <c r="L224" s="112"/>
-      <c r="M224" s="112"/>
-      <c r="N224" s="112"/>
-      <c r="O224" s="112"/>
-      <c r="P224" s="112"/>
-      <c r="Q224" s="112"/>
-      <c r="R224" s="112"/>
-      <c r="S224" s="112"/>
-      <c r="T224" s="112"/>
-      <c r="U224" s="112"/>
-      <c r="V224" s="112"/>
-      <c r="W224" s="112"/>
-      <c r="X224" s="112"/>
-      <c r="Y224" s="112"/>
-      <c r="Z224" s="112"/>
-      <c r="AA224" s="112"/>
-      <c r="AB224" s="112"/>
-      <c r="AC224" s="112"/>
-      <c r="AD224" s="119" t="n">
+      <c r="I224" s="116" t="s">
+        <v>608</v>
+      </c>
+      <c r="J224" s="114"/>
+      <c r="K224" s="114"/>
+      <c r="L224" s="114"/>
+      <c r="M224" s="114"/>
+      <c r="N224" s="114"/>
+      <c r="O224" s="114"/>
+      <c r="P224" s="114"/>
+      <c r="Q224" s="114"/>
+      <c r="R224" s="114"/>
+      <c r="S224" s="114"/>
+      <c r="T224" s="114"/>
+      <c r="U224" s="114"/>
+      <c r="V224" s="114"/>
+      <c r="W224" s="114"/>
+      <c r="X224" s="114"/>
+      <c r="Y224" s="114"/>
+      <c r="Z224" s="114"/>
+      <c r="AA224" s="114"/>
+      <c r="AB224" s="114"/>
+      <c r="AC224" s="114"/>
+      <c r="AD224" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="AE224" s="112"/>
-      <c r="AF224" s="112"/>
-      <c r="AG224" s="112"/>
-      <c r="AH224" s="112"/>
-      <c r="AI224" s="112"/>
-      <c r="AJ224" s="116"/>
-      <c r="AK224" s="116"/>
+      <c r="AE224" s="114"/>
+      <c r="AF224" s="114"/>
+      <c r="AG224" s="114"/>
+      <c r="AH224" s="114"/>
+      <c r="AI224" s="114"/>
+      <c r="AJ224" s="118"/>
+      <c r="AK224" s="118"/>
       <c r="AL224" s="22" t="n">
         <v>223</v>
       </c>
-      <c r="AM224" s="112"/>
-      <c r="AN224" s="112"/>
-      <c r="AO224" s="112"/>
+      <c r="AM224" s="114"/>
+      <c r="AN224" s="114"/>
+      <c r="AO224" s="114"/>
     </row>
     <row r="225" customFormat="false" ht="53.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="25" t="n">
@@ -21665,60 +21681,60 @@
       <c r="C225" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D225" s="118" t="s">
-        <v>604</v>
+      <c r="D225" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E225" s="86" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F225" s="86" t="s">
-        <v>615</v>
-      </c>
-      <c r="G225" s="112"/>
-      <c r="H225" s="113" t="s">
         <v>616</v>
       </c>
-      <c r="I225" s="114" t="s">
+      <c r="G225" s="114"/>
+      <c r="H225" s="115" t="s">
         <v>617</v>
       </c>
-      <c r="J225" s="112"/>
-      <c r="K225" s="112"/>
-      <c r="L225" s="112"/>
-      <c r="M225" s="112"/>
-      <c r="N225" s="112"/>
-      <c r="O225" s="112"/>
-      <c r="P225" s="112"/>
-      <c r="Q225" s="112"/>
-      <c r="R225" s="112"/>
-      <c r="S225" s="112"/>
-      <c r="T225" s="112"/>
-      <c r="U225" s="112"/>
-      <c r="V225" s="112"/>
-      <c r="W225" s="112"/>
-      <c r="X225" s="112"/>
-      <c r="Y225" s="112"/>
-      <c r="Z225" s="112"/>
-      <c r="AA225" s="112"/>
-      <c r="AB225" s="112"/>
-      <c r="AC225" s="112"/>
-      <c r="AD225" s="112" t="n">
+      <c r="I225" s="116" t="s">
+        <v>618</v>
+      </c>
+      <c r="J225" s="114"/>
+      <c r="K225" s="114"/>
+      <c r="L225" s="114"/>
+      <c r="M225" s="114"/>
+      <c r="N225" s="114"/>
+      <c r="O225" s="114"/>
+      <c r="P225" s="114"/>
+      <c r="Q225" s="114"/>
+      <c r="R225" s="114"/>
+      <c r="S225" s="114"/>
+      <c r="T225" s="114"/>
+      <c r="U225" s="114"/>
+      <c r="V225" s="114"/>
+      <c r="W225" s="114"/>
+      <c r="X225" s="114"/>
+      <c r="Y225" s="114"/>
+      <c r="Z225" s="114"/>
+      <c r="AA225" s="114"/>
+      <c r="AB225" s="114"/>
+      <c r="AC225" s="114"/>
+      <c r="AD225" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="AE225" s="112"/>
-      <c r="AF225" s="112"/>
-      <c r="AG225" s="112"/>
-      <c r="AH225" s="112"/>
-      <c r="AI225" s="112"/>
-      <c r="AJ225" s="116" t="s">
+      <c r="AE225" s="114"/>
+      <c r="AF225" s="114"/>
+      <c r="AG225" s="114"/>
+      <c r="AH225" s="114"/>
+      <c r="AI225" s="114"/>
+      <c r="AJ225" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="AK225" s="116"/>
+      <c r="AK225" s="118"/>
       <c r="AL225" s="31" t="n">
         <v>224</v>
       </c>
-      <c r="AM225" s="112"/>
-      <c r="AN225" s="112"/>
-      <c r="AO225" s="112"/>
+      <c r="AM225" s="114"/>
+      <c r="AN225" s="114"/>
+      <c r="AO225" s="114"/>
     </row>
     <row r="226" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="15" t="n">
@@ -21730,60 +21746,60 @@
       <c r="C226" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D226" s="118" t="s">
-        <v>604</v>
+      <c r="D226" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E226" s="86" t="s">
+        <v>619</v>
+      </c>
+      <c r="F226" s="86" t="s">
+        <v>620</v>
+      </c>
+      <c r="G226" s="114"/>
+      <c r="H226" s="115" t="s">
+        <v>621</v>
+      </c>
+      <c r="I226" s="116" t="s">
         <v>618</v>
       </c>
-      <c r="F226" s="86" t="s">
-        <v>619</v>
-      </c>
-      <c r="G226" s="112"/>
-      <c r="H226" s="113" t="s">
-        <v>620</v>
-      </c>
-      <c r="I226" s="114" t="s">
-        <v>617</v>
-      </c>
-      <c r="J226" s="112"/>
-      <c r="K226" s="112"/>
-      <c r="L226" s="112"/>
-      <c r="M226" s="112"/>
-      <c r="N226" s="112"/>
-      <c r="O226" s="112"/>
-      <c r="P226" s="112"/>
-      <c r="Q226" s="112"/>
-      <c r="R226" s="112"/>
-      <c r="S226" s="112"/>
-      <c r="T226" s="112"/>
-      <c r="U226" s="112"/>
-      <c r="V226" s="112"/>
-      <c r="W226" s="112"/>
-      <c r="X226" s="112"/>
-      <c r="Y226" s="112"/>
-      <c r="Z226" s="112"/>
-      <c r="AA226" s="112"/>
-      <c r="AB226" s="112"/>
-      <c r="AC226" s="112"/>
-      <c r="AD226" s="112" t="n">
+      <c r="J226" s="114"/>
+      <c r="K226" s="114"/>
+      <c r="L226" s="114"/>
+      <c r="M226" s="114"/>
+      <c r="N226" s="114"/>
+      <c r="O226" s="114"/>
+      <c r="P226" s="114"/>
+      <c r="Q226" s="114"/>
+      <c r="R226" s="114"/>
+      <c r="S226" s="114"/>
+      <c r="T226" s="114"/>
+      <c r="U226" s="114"/>
+      <c r="V226" s="114"/>
+      <c r="W226" s="114"/>
+      <c r="X226" s="114"/>
+      <c r="Y226" s="114"/>
+      <c r="Z226" s="114"/>
+      <c r="AA226" s="114"/>
+      <c r="AB226" s="114"/>
+      <c r="AC226" s="114"/>
+      <c r="AD226" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="AE226" s="112"/>
-      <c r="AF226" s="112"/>
-      <c r="AG226" s="112"/>
-      <c r="AH226" s="112"/>
-      <c r="AI226" s="112"/>
-      <c r="AJ226" s="116" t="s">
+      <c r="AE226" s="114"/>
+      <c r="AF226" s="114"/>
+      <c r="AG226" s="114"/>
+      <c r="AH226" s="114"/>
+      <c r="AI226" s="114"/>
+      <c r="AJ226" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="AK226" s="116"/>
+      <c r="AK226" s="118"/>
       <c r="AL226" s="22" t="n">
         <v>225</v>
       </c>
-      <c r="AM226" s="112"/>
-      <c r="AN226" s="112"/>
-      <c r="AO226" s="112"/>
+      <c r="AM226" s="114"/>
+      <c r="AN226" s="114"/>
+      <c r="AO226" s="114"/>
     </row>
     <row r="227" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="25" t="n">
@@ -21795,60 +21811,60 @@
       <c r="C227" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D227" s="118" t="s">
-        <v>604</v>
+      <c r="D227" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E227" s="86" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F227" s="86" t="s">
-        <v>622</v>
-      </c>
-      <c r="G227" s="112"/>
-      <c r="H227" s="113" t="s">
         <v>623</v>
       </c>
-      <c r="I227" s="114" t="s">
-        <v>617</v>
-      </c>
-      <c r="J227" s="112"/>
-      <c r="K227" s="112"/>
-      <c r="L227" s="112"/>
-      <c r="M227" s="112"/>
-      <c r="N227" s="112"/>
-      <c r="O227" s="112"/>
-      <c r="P227" s="112"/>
-      <c r="Q227" s="112"/>
-      <c r="R227" s="112"/>
-      <c r="S227" s="112"/>
-      <c r="T227" s="112"/>
-      <c r="U227" s="112"/>
-      <c r="V227" s="112"/>
-      <c r="W227" s="112"/>
-      <c r="X227" s="112"/>
-      <c r="Y227" s="112"/>
-      <c r="Z227" s="112"/>
-      <c r="AA227" s="112"/>
-      <c r="AB227" s="112"/>
-      <c r="AC227" s="112"/>
-      <c r="AD227" s="112" t="n">
+      <c r="G227" s="114"/>
+      <c r="H227" s="115" t="s">
+        <v>624</v>
+      </c>
+      <c r="I227" s="116" t="s">
+        <v>618</v>
+      </c>
+      <c r="J227" s="114"/>
+      <c r="K227" s="114"/>
+      <c r="L227" s="114"/>
+      <c r="M227" s="114"/>
+      <c r="N227" s="114"/>
+      <c r="O227" s="114"/>
+      <c r="P227" s="114"/>
+      <c r="Q227" s="114"/>
+      <c r="R227" s="114"/>
+      <c r="S227" s="114"/>
+      <c r="T227" s="114"/>
+      <c r="U227" s="114"/>
+      <c r="V227" s="114"/>
+      <c r="W227" s="114"/>
+      <c r="X227" s="114"/>
+      <c r="Y227" s="114"/>
+      <c r="Z227" s="114"/>
+      <c r="AA227" s="114"/>
+      <c r="AB227" s="114"/>
+      <c r="AC227" s="114"/>
+      <c r="AD227" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="AE227" s="112"/>
-      <c r="AF227" s="112"/>
-      <c r="AG227" s="112"/>
-      <c r="AH227" s="112"/>
-      <c r="AI227" s="112"/>
-      <c r="AJ227" s="116" t="s">
+      <c r="AE227" s="114"/>
+      <c r="AF227" s="114"/>
+      <c r="AG227" s="114"/>
+      <c r="AH227" s="114"/>
+      <c r="AI227" s="114"/>
+      <c r="AJ227" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="AK227" s="116"/>
+      <c r="AK227" s="118"/>
       <c r="AL227" s="31" t="n">
         <v>226</v>
       </c>
-      <c r="AM227" s="112"/>
-      <c r="AN227" s="112"/>
-      <c r="AO227" s="112"/>
+      <c r="AM227" s="114"/>
+      <c r="AN227" s="114"/>
+      <c r="AO227" s="114"/>
     </row>
     <row r="228" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="15" t="n">
@@ -21860,60 +21876,60 @@
       <c r="C228" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D228" s="118" t="s">
-        <v>604</v>
+      <c r="D228" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E228" s="86" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F228" s="86" t="s">
-        <v>625</v>
-      </c>
-      <c r="G228" s="112"/>
-      <c r="H228" s="113" t="s">
         <v>626</v>
       </c>
-      <c r="I228" s="114" t="s">
-        <v>617</v>
-      </c>
-      <c r="J228" s="112"/>
-      <c r="K228" s="112"/>
-      <c r="L228" s="112"/>
-      <c r="M228" s="112"/>
-      <c r="N228" s="112"/>
-      <c r="O228" s="112"/>
-      <c r="P228" s="112"/>
-      <c r="Q228" s="112"/>
-      <c r="R228" s="112"/>
-      <c r="S228" s="112"/>
-      <c r="T228" s="112"/>
-      <c r="U228" s="112"/>
-      <c r="V228" s="112"/>
-      <c r="W228" s="112"/>
-      <c r="X228" s="112"/>
-      <c r="Y228" s="112"/>
-      <c r="Z228" s="112"/>
-      <c r="AA228" s="112"/>
-      <c r="AB228" s="112"/>
-      <c r="AC228" s="112"/>
-      <c r="AD228" s="112" t="n">
+      <c r="G228" s="114"/>
+      <c r="H228" s="115" t="s">
+        <v>627</v>
+      </c>
+      <c r="I228" s="116" t="s">
+        <v>618</v>
+      </c>
+      <c r="J228" s="114"/>
+      <c r="K228" s="114"/>
+      <c r="L228" s="114"/>
+      <c r="M228" s="114"/>
+      <c r="N228" s="114"/>
+      <c r="O228" s="114"/>
+      <c r="P228" s="114"/>
+      <c r="Q228" s="114"/>
+      <c r="R228" s="114"/>
+      <c r="S228" s="114"/>
+      <c r="T228" s="114"/>
+      <c r="U228" s="114"/>
+      <c r="V228" s="114"/>
+      <c r="W228" s="114"/>
+      <c r="X228" s="114"/>
+      <c r="Y228" s="114"/>
+      <c r="Z228" s="114"/>
+      <c r="AA228" s="114"/>
+      <c r="AB228" s="114"/>
+      <c r="AC228" s="114"/>
+      <c r="AD228" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="AE228" s="112"/>
-      <c r="AF228" s="112"/>
-      <c r="AG228" s="112"/>
-      <c r="AH228" s="112"/>
-      <c r="AI228" s="112"/>
-      <c r="AJ228" s="116" t="s">
+      <c r="AE228" s="114"/>
+      <c r="AF228" s="114"/>
+      <c r="AG228" s="114"/>
+      <c r="AH228" s="114"/>
+      <c r="AI228" s="114"/>
+      <c r="AJ228" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="AK228" s="116"/>
+      <c r="AK228" s="118"/>
       <c r="AL228" s="22" t="n">
         <v>227</v>
       </c>
-      <c r="AM228" s="112"/>
-      <c r="AN228" s="112"/>
-      <c r="AO228" s="112"/>
+      <c r="AM228" s="114"/>
+      <c r="AN228" s="114"/>
+      <c r="AO228" s="114"/>
     </row>
     <row r="229" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="25" t="n">
@@ -21925,58 +21941,58 @@
       <c r="C229" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D229" s="118" t="s">
-        <v>604</v>
+      <c r="D229" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E229" s="86" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F229" s="86" t="s">
-        <v>628</v>
-      </c>
-      <c r="G229" s="112" t="s">
+        <v>629</v>
+      </c>
+      <c r="G229" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="H229" s="113" t="s">
-        <v>629</v>
-      </c>
-      <c r="I229" s="114" t="s">
-        <v>617</v>
-      </c>
-      <c r="J229" s="112"/>
-      <c r="K229" s="112"/>
-      <c r="L229" s="112"/>
-      <c r="M229" s="112"/>
-      <c r="N229" s="112"/>
-      <c r="O229" s="112"/>
-      <c r="P229" s="112"/>
-      <c r="Q229" s="112"/>
-      <c r="R229" s="112"/>
-      <c r="S229" s="112"/>
-      <c r="T229" s="112"/>
-      <c r="U229" s="112"/>
-      <c r="V229" s="112"/>
-      <c r="W229" s="112"/>
-      <c r="X229" s="112"/>
-      <c r="Y229" s="112"/>
-      <c r="Z229" s="112"/>
-      <c r="AA229" s="112"/>
-      <c r="AB229" s="112"/>
-      <c r="AC229" s="112"/>
-      <c r="AD229" s="112"/>
-      <c r="AE229" s="112"/>
-      <c r="AF229" s="112"/>
-      <c r="AG229" s="112"/>
-      <c r="AH229" s="112"/>
-      <c r="AI229" s="112"/>
-      <c r="AJ229" s="116"/>
-      <c r="AK229" s="116"/>
+      <c r="H229" s="115" t="s">
+        <v>630</v>
+      </c>
+      <c r="I229" s="116" t="s">
+        <v>618</v>
+      </c>
+      <c r="J229" s="114"/>
+      <c r="K229" s="114"/>
+      <c r="L229" s="114"/>
+      <c r="M229" s="114"/>
+      <c r="N229" s="114"/>
+      <c r="O229" s="114"/>
+      <c r="P229" s="114"/>
+      <c r="Q229" s="114"/>
+      <c r="R229" s="114"/>
+      <c r="S229" s="114"/>
+      <c r="T229" s="114"/>
+      <c r="U229" s="114"/>
+      <c r="V229" s="114"/>
+      <c r="W229" s="114"/>
+      <c r="X229" s="114"/>
+      <c r="Y229" s="114"/>
+      <c r="Z229" s="114"/>
+      <c r="AA229" s="114"/>
+      <c r="AB229" s="114"/>
+      <c r="AC229" s="114"/>
+      <c r="AD229" s="114"/>
+      <c r="AE229" s="114"/>
+      <c r="AF229" s="114"/>
+      <c r="AG229" s="114"/>
+      <c r="AH229" s="114"/>
+      <c r="AI229" s="114"/>
+      <c r="AJ229" s="118"/>
+      <c r="AK229" s="118"/>
       <c r="AL229" s="31" t="n">
         <v>228</v>
       </c>
-      <c r="AM229" s="112"/>
-      <c r="AN229" s="112"/>
-      <c r="AO229" s="112"/>
+      <c r="AM229" s="114"/>
+      <c r="AN229" s="114"/>
+      <c r="AO229" s="114"/>
     </row>
     <row r="230" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="15" t="n">
@@ -21988,58 +22004,58 @@
       <c r="C230" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D230" s="118" t="s">
-        <v>604</v>
+      <c r="D230" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E230" s="86" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F230" s="86" t="s">
-        <v>628</v>
-      </c>
-      <c r="G230" s="112" t="s">
+        <v>629</v>
+      </c>
+      <c r="G230" s="114" t="s">
         <v>404</v>
       </c>
-      <c r="H230" s="113" t="s">
-        <v>630</v>
-      </c>
-      <c r="I230" s="114" t="s">
-        <v>617</v>
-      </c>
-      <c r="J230" s="112"/>
-      <c r="K230" s="112"/>
-      <c r="L230" s="112"/>
-      <c r="M230" s="112"/>
-      <c r="N230" s="112"/>
-      <c r="O230" s="112"/>
-      <c r="P230" s="112"/>
-      <c r="Q230" s="112"/>
-      <c r="R230" s="112"/>
-      <c r="S230" s="112"/>
-      <c r="T230" s="112"/>
-      <c r="U230" s="112"/>
-      <c r="V230" s="112"/>
-      <c r="W230" s="112"/>
-      <c r="X230" s="112"/>
-      <c r="Y230" s="112"/>
-      <c r="Z230" s="112"/>
-      <c r="AA230" s="112"/>
-      <c r="AB230" s="112"/>
-      <c r="AC230" s="112"/>
-      <c r="AD230" s="112"/>
-      <c r="AE230" s="112"/>
-      <c r="AF230" s="112"/>
-      <c r="AG230" s="112"/>
-      <c r="AH230" s="112"/>
-      <c r="AI230" s="112"/>
-      <c r="AJ230" s="116"/>
-      <c r="AK230" s="116"/>
+      <c r="H230" s="115" t="s">
+        <v>631</v>
+      </c>
+      <c r="I230" s="116" t="s">
+        <v>618</v>
+      </c>
+      <c r="J230" s="114"/>
+      <c r="K230" s="114"/>
+      <c r="L230" s="114"/>
+      <c r="M230" s="114"/>
+      <c r="N230" s="114"/>
+      <c r="O230" s="114"/>
+      <c r="P230" s="114"/>
+      <c r="Q230" s="114"/>
+      <c r="R230" s="114"/>
+      <c r="S230" s="114"/>
+      <c r="T230" s="114"/>
+      <c r="U230" s="114"/>
+      <c r="V230" s="114"/>
+      <c r="W230" s="114"/>
+      <c r="X230" s="114"/>
+      <c r="Y230" s="114"/>
+      <c r="Z230" s="114"/>
+      <c r="AA230" s="114"/>
+      <c r="AB230" s="114"/>
+      <c r="AC230" s="114"/>
+      <c r="AD230" s="114"/>
+      <c r="AE230" s="114"/>
+      <c r="AF230" s="114"/>
+      <c r="AG230" s="114"/>
+      <c r="AH230" s="114"/>
+      <c r="AI230" s="114"/>
+      <c r="AJ230" s="118"/>
+      <c r="AK230" s="118"/>
       <c r="AL230" s="22" t="n">
         <v>229</v>
       </c>
-      <c r="AM230" s="112"/>
-      <c r="AN230" s="112"/>
-      <c r="AO230" s="112"/>
+      <c r="AM230" s="114"/>
+      <c r="AN230" s="114"/>
+      <c r="AO230" s="114"/>
     </row>
     <row r="231" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="25" t="n">
@@ -22051,58 +22067,58 @@
       <c r="C231" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D231" s="118" t="s">
-        <v>604</v>
+      <c r="D231" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E231" s="86" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F231" s="86" t="s">
-        <v>628</v>
-      </c>
-      <c r="G231" s="112" t="s">
+        <v>629</v>
+      </c>
+      <c r="G231" s="114" t="s">
         <v>435</v>
       </c>
-      <c r="H231" s="113" t="s">
-        <v>630</v>
-      </c>
-      <c r="I231" s="114" t="s">
-        <v>617</v>
-      </c>
-      <c r="J231" s="112"/>
-      <c r="K231" s="112"/>
-      <c r="L231" s="112"/>
-      <c r="M231" s="112"/>
-      <c r="N231" s="112"/>
-      <c r="O231" s="112"/>
-      <c r="P231" s="112"/>
-      <c r="Q231" s="112"/>
-      <c r="R231" s="112"/>
-      <c r="S231" s="112"/>
-      <c r="T231" s="112"/>
-      <c r="U231" s="112"/>
-      <c r="V231" s="112"/>
-      <c r="W231" s="112"/>
-      <c r="X231" s="112"/>
-      <c r="Y231" s="112"/>
-      <c r="Z231" s="112"/>
-      <c r="AA231" s="112"/>
-      <c r="AB231" s="112"/>
-      <c r="AC231" s="112"/>
-      <c r="AD231" s="112"/>
-      <c r="AE231" s="112"/>
-      <c r="AF231" s="112"/>
-      <c r="AG231" s="112"/>
-      <c r="AH231" s="112"/>
-      <c r="AI231" s="112"/>
-      <c r="AJ231" s="116"/>
-      <c r="AK231" s="116"/>
+      <c r="H231" s="115" t="s">
+        <v>631</v>
+      </c>
+      <c r="I231" s="116" t="s">
+        <v>618</v>
+      </c>
+      <c r="J231" s="114"/>
+      <c r="K231" s="114"/>
+      <c r="L231" s="114"/>
+      <c r="M231" s="114"/>
+      <c r="N231" s="114"/>
+      <c r="O231" s="114"/>
+      <c r="P231" s="114"/>
+      <c r="Q231" s="114"/>
+      <c r="R231" s="114"/>
+      <c r="S231" s="114"/>
+      <c r="T231" s="114"/>
+      <c r="U231" s="114"/>
+      <c r="V231" s="114"/>
+      <c r="W231" s="114"/>
+      <c r="X231" s="114"/>
+      <c r="Y231" s="114"/>
+      <c r="Z231" s="114"/>
+      <c r="AA231" s="114"/>
+      <c r="AB231" s="114"/>
+      <c r="AC231" s="114"/>
+      <c r="AD231" s="114"/>
+      <c r="AE231" s="114"/>
+      <c r="AF231" s="114"/>
+      <c r="AG231" s="114"/>
+      <c r="AH231" s="114"/>
+      <c r="AI231" s="114"/>
+      <c r="AJ231" s="118"/>
+      <c r="AK231" s="118"/>
       <c r="AL231" s="31" t="n">
         <v>230</v>
       </c>
-      <c r="AM231" s="112"/>
-      <c r="AN231" s="112"/>
-      <c r="AO231" s="112"/>
+      <c r="AM231" s="114"/>
+      <c r="AN231" s="114"/>
+      <c r="AO231" s="114"/>
     </row>
     <row r="232" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="n">
@@ -22114,58 +22130,58 @@
       <c r="C232" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D232" s="118" t="s">
-        <v>604</v>
+      <c r="D232" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E232" s="86" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F232" s="86" t="s">
-        <v>628</v>
-      </c>
-      <c r="G232" s="112" t="s">
+        <v>629</v>
+      </c>
+      <c r="G232" s="114" t="s">
         <v>453</v>
       </c>
-      <c r="H232" s="113" t="s">
-        <v>631</v>
-      </c>
-      <c r="I232" s="114" t="s">
-        <v>617</v>
-      </c>
-      <c r="J232" s="112"/>
-      <c r="K232" s="112"/>
-      <c r="L232" s="112"/>
-      <c r="M232" s="112"/>
-      <c r="N232" s="112"/>
-      <c r="O232" s="112"/>
-      <c r="P232" s="112"/>
-      <c r="Q232" s="112"/>
-      <c r="R232" s="112"/>
-      <c r="S232" s="112"/>
-      <c r="T232" s="112"/>
-      <c r="U232" s="112"/>
-      <c r="V232" s="112"/>
-      <c r="W232" s="112"/>
-      <c r="X232" s="112"/>
-      <c r="Y232" s="112"/>
-      <c r="Z232" s="112"/>
-      <c r="AA232" s="112"/>
-      <c r="AB232" s="112"/>
-      <c r="AC232" s="112"/>
-      <c r="AD232" s="112"/>
-      <c r="AE232" s="112"/>
-      <c r="AF232" s="112"/>
-      <c r="AG232" s="112"/>
-      <c r="AH232" s="112"/>
-      <c r="AI232" s="112"/>
-      <c r="AJ232" s="116"/>
-      <c r="AK232" s="116"/>
+      <c r="H232" s="115" t="s">
+        <v>632</v>
+      </c>
+      <c r="I232" s="116" t="s">
+        <v>618</v>
+      </c>
+      <c r="J232" s="114"/>
+      <c r="K232" s="114"/>
+      <c r="L232" s="114"/>
+      <c r="M232" s="114"/>
+      <c r="N232" s="114"/>
+      <c r="O232" s="114"/>
+      <c r="P232" s="114"/>
+      <c r="Q232" s="114"/>
+      <c r="R232" s="114"/>
+      <c r="S232" s="114"/>
+      <c r="T232" s="114"/>
+      <c r="U232" s="114"/>
+      <c r="V232" s="114"/>
+      <c r="W232" s="114"/>
+      <c r="X232" s="114"/>
+      <c r="Y232" s="114"/>
+      <c r="Z232" s="114"/>
+      <c r="AA232" s="114"/>
+      <c r="AB232" s="114"/>
+      <c r="AC232" s="114"/>
+      <c r="AD232" s="114"/>
+      <c r="AE232" s="114"/>
+      <c r="AF232" s="114"/>
+      <c r="AG232" s="114"/>
+      <c r="AH232" s="114"/>
+      <c r="AI232" s="114"/>
+      <c r="AJ232" s="118"/>
+      <c r="AK232" s="118"/>
       <c r="AL232" s="22" t="n">
         <v>231</v>
       </c>
-      <c r="AM232" s="112"/>
-      <c r="AN232" s="112"/>
-      <c r="AO232" s="112"/>
+      <c r="AM232" s="114"/>
+      <c r="AN232" s="114"/>
+      <c r="AO232" s="114"/>
     </row>
     <row r="233" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="25" t="n">
@@ -22177,58 +22193,58 @@
       <c r="C233" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D233" s="118" t="s">
-        <v>604</v>
+      <c r="D233" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E233" s="86" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F233" s="86" t="s">
-        <v>628</v>
-      </c>
-      <c r="G233" s="112" t="s">
+        <v>629</v>
+      </c>
+      <c r="G233" s="114" t="s">
         <v>471</v>
       </c>
-      <c r="H233" s="113" t="s">
-        <v>629</v>
-      </c>
-      <c r="I233" s="114" t="s">
-        <v>617</v>
-      </c>
-      <c r="J233" s="112"/>
-      <c r="K233" s="112"/>
-      <c r="L233" s="112"/>
-      <c r="M233" s="112"/>
-      <c r="N233" s="112"/>
-      <c r="O233" s="112"/>
-      <c r="P233" s="112"/>
-      <c r="Q233" s="112"/>
-      <c r="R233" s="112"/>
-      <c r="S233" s="112"/>
-      <c r="T233" s="112"/>
-      <c r="U233" s="112"/>
-      <c r="V233" s="112"/>
-      <c r="W233" s="112"/>
-      <c r="X233" s="112"/>
-      <c r="Y233" s="112"/>
-      <c r="Z233" s="112"/>
-      <c r="AA233" s="112"/>
-      <c r="AB233" s="112"/>
-      <c r="AC233" s="112"/>
-      <c r="AD233" s="112"/>
-      <c r="AE233" s="112"/>
-      <c r="AF233" s="112"/>
-      <c r="AG233" s="112"/>
-      <c r="AH233" s="112"/>
-      <c r="AI233" s="112"/>
-      <c r="AJ233" s="116"/>
-      <c r="AK233" s="116"/>
+      <c r="H233" s="115" t="s">
+        <v>630</v>
+      </c>
+      <c r="I233" s="116" t="s">
+        <v>618</v>
+      </c>
+      <c r="J233" s="114"/>
+      <c r="K233" s="114"/>
+      <c r="L233" s="114"/>
+      <c r="M233" s="114"/>
+      <c r="N233" s="114"/>
+      <c r="O233" s="114"/>
+      <c r="P233" s="114"/>
+      <c r="Q233" s="114"/>
+      <c r="R233" s="114"/>
+      <c r="S233" s="114"/>
+      <c r="T233" s="114"/>
+      <c r="U233" s="114"/>
+      <c r="V233" s="114"/>
+      <c r="W233" s="114"/>
+      <c r="X233" s="114"/>
+      <c r="Y233" s="114"/>
+      <c r="Z233" s="114"/>
+      <c r="AA233" s="114"/>
+      <c r="AB233" s="114"/>
+      <c r="AC233" s="114"/>
+      <c r="AD233" s="114"/>
+      <c r="AE233" s="114"/>
+      <c r="AF233" s="114"/>
+      <c r="AG233" s="114"/>
+      <c r="AH233" s="114"/>
+      <c r="AI233" s="114"/>
+      <c r="AJ233" s="118"/>
+      <c r="AK233" s="118"/>
       <c r="AL233" s="31" t="n">
         <v>232</v>
       </c>
-      <c r="AM233" s="112"/>
-      <c r="AN233" s="112"/>
-      <c r="AO233" s="112"/>
+      <c r="AM233" s="114"/>
+      <c r="AN233" s="114"/>
+      <c r="AO233" s="114"/>
     </row>
     <row r="234" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="15" t="n">
@@ -22240,58 +22256,58 @@
       <c r="C234" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D234" s="118" t="s">
-        <v>604</v>
+      <c r="D234" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E234" s="86" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F234" s="86" t="s">
-        <v>628</v>
-      </c>
-      <c r="G234" s="112" t="s">
+        <v>629</v>
+      </c>
+      <c r="G234" s="114" t="s">
         <v>483</v>
       </c>
-      <c r="H234" s="113" t="s">
-        <v>629</v>
-      </c>
-      <c r="I234" s="114" t="s">
-        <v>617</v>
-      </c>
-      <c r="J234" s="112"/>
-      <c r="K234" s="112"/>
-      <c r="L234" s="112"/>
-      <c r="M234" s="112"/>
-      <c r="N234" s="112"/>
-      <c r="O234" s="112"/>
-      <c r="P234" s="112"/>
-      <c r="Q234" s="112"/>
-      <c r="R234" s="112"/>
-      <c r="S234" s="112"/>
-      <c r="T234" s="112"/>
-      <c r="U234" s="112"/>
-      <c r="V234" s="112"/>
-      <c r="W234" s="112"/>
-      <c r="X234" s="112"/>
-      <c r="Y234" s="112"/>
-      <c r="Z234" s="112"/>
-      <c r="AA234" s="112"/>
-      <c r="AB234" s="112"/>
-      <c r="AC234" s="112"/>
-      <c r="AD234" s="112"/>
-      <c r="AE234" s="112"/>
-      <c r="AF234" s="112"/>
-      <c r="AG234" s="112"/>
-      <c r="AH234" s="112"/>
-      <c r="AI234" s="112"/>
-      <c r="AJ234" s="116"/>
-      <c r="AK234" s="116"/>
+      <c r="H234" s="115" t="s">
+        <v>630</v>
+      </c>
+      <c r="I234" s="116" t="s">
+        <v>618</v>
+      </c>
+      <c r="J234" s="114"/>
+      <c r="K234" s="114"/>
+      <c r="L234" s="114"/>
+      <c r="M234" s="114"/>
+      <c r="N234" s="114"/>
+      <c r="O234" s="114"/>
+      <c r="P234" s="114"/>
+      <c r="Q234" s="114"/>
+      <c r="R234" s="114"/>
+      <c r="S234" s="114"/>
+      <c r="T234" s="114"/>
+      <c r="U234" s="114"/>
+      <c r="V234" s="114"/>
+      <c r="W234" s="114"/>
+      <c r="X234" s="114"/>
+      <c r="Y234" s="114"/>
+      <c r="Z234" s="114"/>
+      <c r="AA234" s="114"/>
+      <c r="AB234" s="114"/>
+      <c r="AC234" s="114"/>
+      <c r="AD234" s="114"/>
+      <c r="AE234" s="114"/>
+      <c r="AF234" s="114"/>
+      <c r="AG234" s="114"/>
+      <c r="AH234" s="114"/>
+      <c r="AI234" s="114"/>
+      <c r="AJ234" s="118"/>
+      <c r="AK234" s="118"/>
       <c r="AL234" s="22" t="n">
         <v>233</v>
       </c>
-      <c r="AM234" s="112"/>
-      <c r="AN234" s="112"/>
-      <c r="AO234" s="112"/>
+      <c r="AM234" s="114"/>
+      <c r="AN234" s="114"/>
+      <c r="AO234" s="114"/>
     </row>
     <row r="235" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="25" t="n">
@@ -22303,58 +22319,58 @@
       <c r="C235" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D235" s="118" t="s">
-        <v>604</v>
+      <c r="D235" s="120" t="s">
+        <v>605</v>
       </c>
       <c r="E235" s="86" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F235" s="86" t="s">
-        <v>628</v>
-      </c>
-      <c r="G235" s="112" t="s">
+        <v>629</v>
+      </c>
+      <c r="G235" s="114" t="s">
         <v>494</v>
       </c>
-      <c r="H235" s="113" t="s">
-        <v>631</v>
-      </c>
-      <c r="I235" s="114" t="s">
-        <v>617</v>
-      </c>
-      <c r="J235" s="112"/>
-      <c r="K235" s="112"/>
-      <c r="L235" s="112"/>
-      <c r="M235" s="112"/>
-      <c r="N235" s="112"/>
-      <c r="O235" s="112"/>
-      <c r="P235" s="112"/>
-      <c r="Q235" s="112"/>
-      <c r="R235" s="112"/>
-      <c r="S235" s="112"/>
-      <c r="T235" s="112"/>
-      <c r="U235" s="112"/>
-      <c r="V235" s="112"/>
-      <c r="W235" s="112"/>
-      <c r="X235" s="112"/>
-      <c r="Y235" s="112"/>
-      <c r="Z235" s="112"/>
-      <c r="AA235" s="112"/>
-      <c r="AB235" s="112"/>
-      <c r="AC235" s="112"/>
-      <c r="AD235" s="112"/>
-      <c r="AE235" s="112"/>
-      <c r="AF235" s="112"/>
-      <c r="AG235" s="112"/>
-      <c r="AH235" s="112"/>
-      <c r="AI235" s="112"/>
-      <c r="AJ235" s="116"/>
-      <c r="AK235" s="116"/>
+      <c r="H235" s="115" t="s">
+        <v>632</v>
+      </c>
+      <c r="I235" s="116" t="s">
+        <v>618</v>
+      </c>
+      <c r="J235" s="114"/>
+      <c r="K235" s="114"/>
+      <c r="L235" s="114"/>
+      <c r="M235" s="114"/>
+      <c r="N235" s="114"/>
+      <c r="O235" s="114"/>
+      <c r="P235" s="114"/>
+      <c r="Q235" s="114"/>
+      <c r="R235" s="114"/>
+      <c r="S235" s="114"/>
+      <c r="T235" s="114"/>
+      <c r="U235" s="114"/>
+      <c r="V235" s="114"/>
+      <c r="W235" s="114"/>
+      <c r="X235" s="114"/>
+      <c r="Y235" s="114"/>
+      <c r="Z235" s="114"/>
+      <c r="AA235" s="114"/>
+      <c r="AB235" s="114"/>
+      <c r="AC235" s="114"/>
+      <c r="AD235" s="114"/>
+      <c r="AE235" s="114"/>
+      <c r="AF235" s="114"/>
+      <c r="AG235" s="114"/>
+      <c r="AH235" s="114"/>
+      <c r="AI235" s="114"/>
+      <c r="AJ235" s="118"/>
+      <c r="AK235" s="118"/>
       <c r="AL235" s="22" t="n">
         <v>234</v>
       </c>
-      <c r="AM235" s="112"/>
-      <c r="AN235" s="112"/>
-      <c r="AO235" s="112"/>
+      <c r="AM235" s="114"/>
+      <c r="AN235" s="114"/>
+      <c r="AO235" s="114"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AP235"/>
@@ -22377,17 +22393,17 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC195:AF195 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="120" t="s">
-        <v>586</v>
+      <c r="A1" s="122" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22414,58 +22430,58 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC195:AF195 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="122" t="s">
-        <v>632</v>
-      </c>
-      <c r="H1" s="122" t="s">
+      <c r="G1" s="124" t="s">
         <v>633</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="H1" s="124" t="s">
+        <v>634</v>
+      </c>
+      <c r="I1" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="122" t="s">
-        <v>634</v>
-      </c>
-      <c r="L1" s="122" t="s">
+      <c r="K1" s="124" t="s">
+        <v>635</v>
+      </c>
+      <c r="L1" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="122" t="s">
+      <c r="M1" s="124" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="123" t="s">
-        <v>635</v>
+      <c r="B4" s="125" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/Supermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Supermarket PoS 2018.xlsx
@@ -35,6 +35,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2018,7 +2019,7 @@
     <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
   </si>
   <si>
-    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+    <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
   </si>
   <si>
     <t xml:space="preserve">COUNT</t>
@@ -2346,7 +2347,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2743,10 +2744,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2783,7 +2780,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2935,21 +2932,21 @@
   <dimension ref="A1:AO235"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AC195" activeCellId="0" sqref="AC195:AF195"/>
+      <selection pane="bottomLeft" activeCell="K218" activeCellId="0" sqref="K218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19319,10 +19316,10 @@
       <c r="AC195" s="77" t="s">
         <v>540</v>
       </c>
-      <c r="AD195" s="99" t="n">
+      <c r="AD195" s="61" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AE195" s="100" t="n">
+      <c r="AE195" s="99" t="n">
         <v>0.8</v>
       </c>
       <c r="AF195" s="76" t="n">
@@ -20219,7 +20216,7 @@
       <c r="F206" s="47" t="s">
         <v>562</v>
       </c>
-      <c r="G206" s="101" t="s">
+      <c r="G206" s="100" t="s">
         <v>563</v>
       </c>
       <c r="H206" s="48" t="s">
@@ -20304,7 +20301,7 @@
       <c r="F207" s="47" t="s">
         <v>566</v>
       </c>
-      <c r="G207" s="101" t="s">
+      <c r="G207" s="100" t="s">
         <v>567</v>
       </c>
       <c r="H207" s="48" t="s">
@@ -20389,7 +20386,7 @@
       <c r="F208" s="47" t="s">
         <v>570</v>
       </c>
-      <c r="G208" s="101" t="s">
+      <c r="G208" s="100" t="s">
         <v>571</v>
       </c>
       <c r="H208" s="48" t="s">
@@ -20474,7 +20471,7 @@
       <c r="F209" s="47" t="s">
         <v>572</v>
       </c>
-      <c r="G209" s="101" t="s">
+      <c r="G209" s="100" t="s">
         <v>573</v>
       </c>
       <c r="H209" s="48" t="s">
@@ -20559,7 +20556,7 @@
       <c r="F210" s="47" t="s">
         <v>574</v>
       </c>
-      <c r="G210" s="101" t="s">
+      <c r="G210" s="100" t="s">
         <v>575</v>
       </c>
       <c r="H210" s="48" t="s">
@@ -20644,7 +20641,7 @@
       <c r="F211" s="47" t="s">
         <v>576</v>
       </c>
-      <c r="G211" s="101" t="s">
+      <c r="G211" s="100" t="s">
         <v>577</v>
       </c>
       <c r="H211" s="48" t="s">
@@ -20860,10 +20857,10 @@
       <c r="AL213" s="31" t="n">
         <v>212</v>
       </c>
-      <c r="AM213" s="102" t="s">
+      <c r="AM213" s="101" t="s">
         <v>583</v>
       </c>
-      <c r="AN213" s="103" t="s">
+      <c r="AN213" s="102" t="s">
         <v>584</v>
       </c>
       <c r="AO213" s="12"/>
@@ -20887,7 +20884,7 @@
       <c r="F214" s="47" t="s">
         <v>585</v>
       </c>
-      <c r="G214" s="104" t="s">
+      <c r="G214" s="103" t="s">
         <v>586</v>
       </c>
       <c r="H214" s="47" t="s">
@@ -20913,11 +20910,11 @@
       <c r="T214" s="48"/>
       <c r="U214" s="48"/>
       <c r="V214" s="48"/>
-      <c r="W214" s="105" t="s">
+      <c r="W214" s="104" t="s">
         <v>587</v>
       </c>
       <c r="X214" s="48"/>
-      <c r="Y214" s="106"/>
+      <c r="Y214" s="105"/>
       <c r="Z214" s="48"/>
       <c r="AA214" s="48"/>
       <c r="AB214" s="35" t="s">
@@ -20966,7 +20963,7 @@
       <c r="F215" s="47" t="s">
         <v>588</v>
       </c>
-      <c r="G215" s="104" t="s">
+      <c r="G215" s="103" t="s">
         <v>589</v>
       </c>
       <c r="H215" s="47" t="s">
@@ -20992,11 +20989,11 @@
       <c r="T215" s="48"/>
       <c r="U215" s="48"/>
       <c r="V215" s="48"/>
-      <c r="W215" s="105" t="s">
+      <c r="W215" s="104" t="s">
         <v>590</v>
       </c>
       <c r="X215" s="48"/>
-      <c r="Y215" s="106"/>
+      <c r="Y215" s="105"/>
       <c r="Z215" s="48"/>
       <c r="AA215" s="48"/>
       <c r="AB215" s="35" t="s">
@@ -21045,7 +21042,7 @@
       <c r="F216" s="47" t="s">
         <v>591</v>
       </c>
-      <c r="G216" s="104" t="s">
+      <c r="G216" s="103" t="s">
         <v>592</v>
       </c>
       <c r="H216" s="47" t="s">
@@ -21071,11 +21068,11 @@
       <c r="T216" s="48"/>
       <c r="U216" s="48"/>
       <c r="V216" s="48"/>
-      <c r="W216" s="105" t="s">
+      <c r="W216" s="104" t="s">
         <v>593</v>
       </c>
       <c r="X216" s="48"/>
-      <c r="Y216" s="106"/>
+      <c r="Y216" s="105"/>
       <c r="Z216" s="48"/>
       <c r="AA216" s="48"/>
       <c r="AB216" s="35" t="s">
@@ -21124,7 +21121,7 @@
       <c r="F217" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="G217" s="104" t="s">
+      <c r="G217" s="103" t="s">
         <v>595</v>
       </c>
       <c r="H217" s="47" t="s">
@@ -21150,11 +21147,11 @@
       <c r="T217" s="48"/>
       <c r="U217" s="48"/>
       <c r="V217" s="48"/>
-      <c r="W217" s="105" t="s">
+      <c r="W217" s="104" t="s">
         <v>596</v>
       </c>
       <c r="X217" s="48"/>
-      <c r="Y217" s="106"/>
+      <c r="Y217" s="105"/>
       <c r="Z217" s="48"/>
       <c r="AA217" s="48"/>
       <c r="AB217" s="35" t="s">
@@ -21197,7 +21194,7 @@
       <c r="D218" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="E218" s="107" t="s">
+      <c r="E218" s="106" t="s">
         <v>306</v>
       </c>
       <c r="F218" s="47" t="s">
@@ -21257,7 +21254,7 @@
       <c r="AL218" s="22" t="n">
         <v>217</v>
       </c>
-      <c r="AM218" s="108" t="s">
+      <c r="AM218" s="107" t="s">
         <v>599</v>
       </c>
       <c r="AN218" s="86" t="s">
@@ -21278,24 +21275,22 @@
       <c r="D219" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="E219" s="107" t="s">
+      <c r="E219" s="106" t="s">
         <v>306</v>
       </c>
       <c r="F219" s="47" t="s">
         <v>601</v>
       </c>
-      <c r="G219" s="104" t="s">
+      <c r="G219" s="103" t="s">
         <v>602</v>
       </c>
-      <c r="H219" s="109" t="s">
+      <c r="H219" s="108" t="s">
         <v>603</v>
       </c>
       <c r="I219" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J219" s="48" t="n">
         <v>8</v>
       </c>
+      <c r="J219" s="48"/>
       <c r="K219" s="48"/>
       <c r="L219" s="48" t="s">
         <v>300</v>
@@ -21345,7 +21340,7 @@
         <v>218</v>
       </c>
       <c r="AM219" s="12"/>
-      <c r="AN219" s="110" t="s">
+      <c r="AN219" s="109" t="s">
         <v>597</v>
       </c>
       <c r="AO219" s="12"/>
@@ -21360,60 +21355,60 @@
       <c r="C220" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D220" s="111" t="s">
+      <c r="D220" s="110" t="s">
         <v>605</v>
       </c>
-      <c r="E220" s="112" t="s">
+      <c r="E220" s="111" t="s">
         <v>606</v>
       </c>
-      <c r="F220" s="113" t="s">
+      <c r="F220" s="112" t="s">
         <v>313</v>
       </c>
-      <c r="G220" s="114"/>
-      <c r="H220" s="115" t="s">
+      <c r="G220" s="113"/>
+      <c r="H220" s="114" t="s">
         <v>607</v>
       </c>
-      <c r="I220" s="116" t="s">
+      <c r="I220" s="115" t="s">
         <v>608</v>
       </c>
-      <c r="J220" s="114"/>
-      <c r="K220" s="114"/>
-      <c r="L220" s="114"/>
-      <c r="M220" s="114"/>
-      <c r="N220" s="114"/>
-      <c r="O220" s="114"/>
-      <c r="P220" s="114"/>
-      <c r="Q220" s="114"/>
-      <c r="R220" s="114"/>
-      <c r="S220" s="114"/>
-      <c r="T220" s="114"/>
-      <c r="U220" s="114"/>
-      <c r="V220" s="114"/>
-      <c r="W220" s="114"/>
-      <c r="X220" s="114"/>
-      <c r="Y220" s="114"/>
-      <c r="Z220" s="114"/>
-      <c r="AA220" s="114"/>
-      <c r="AB220" s="114"/>
-      <c r="AC220" s="114"/>
-      <c r="AD220" s="117" t="n">
+      <c r="J220" s="113"/>
+      <c r="K220" s="113"/>
+      <c r="L220" s="113"/>
+      <c r="M220" s="113"/>
+      <c r="N220" s="113"/>
+      <c r="O220" s="113"/>
+      <c r="P220" s="113"/>
+      <c r="Q220" s="113"/>
+      <c r="R220" s="113"/>
+      <c r="S220" s="113"/>
+      <c r="T220" s="113"/>
+      <c r="U220" s="113"/>
+      <c r="V220" s="113"/>
+      <c r="W220" s="113"/>
+      <c r="X220" s="113"/>
+      <c r="Y220" s="113"/>
+      <c r="Z220" s="113"/>
+      <c r="AA220" s="113"/>
+      <c r="AB220" s="113"/>
+      <c r="AC220" s="113"/>
+      <c r="AD220" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="AE220" s="114"/>
-      <c r="AF220" s="114"/>
-      <c r="AG220" s="114"/>
-      <c r="AH220" s="114"/>
-      <c r="AI220" s="114"/>
-      <c r="AJ220" s="118" t="s">
+      <c r="AE220" s="113"/>
+      <c r="AF220" s="113"/>
+      <c r="AG220" s="113"/>
+      <c r="AH220" s="113"/>
+      <c r="AI220" s="113"/>
+      <c r="AJ220" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="AK220" s="118"/>
+      <c r="AK220" s="117"/>
       <c r="AL220" s="22" t="n">
         <v>219</v>
       </c>
-      <c r="AM220" s="114"/>
-      <c r="AN220" s="114"/>
-      <c r="AO220" s="114"/>
+      <c r="AM220" s="113"/>
+      <c r="AN220" s="113"/>
+      <c r="AO220" s="113"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="25" t="n">
@@ -21425,60 +21420,60 @@
       <c r="C221" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D221" s="111" t="s">
+      <c r="D221" s="110" t="s">
         <v>605</v>
       </c>
       <c r="E221" s="86" t="s">
         <v>609</v>
       </c>
-      <c r="F221" s="119" t="s">
+      <c r="F221" s="118" t="s">
         <v>584</v>
       </c>
-      <c r="G221" s="114"/>
-      <c r="H221" s="114" t="s">
+      <c r="G221" s="113"/>
+      <c r="H221" s="113" t="s">
         <v>610</v>
       </c>
-      <c r="I221" s="116" t="s">
+      <c r="I221" s="115" t="s">
         <v>608</v>
       </c>
-      <c r="J221" s="114"/>
-      <c r="K221" s="114"/>
-      <c r="L221" s="114"/>
-      <c r="M221" s="114"/>
-      <c r="N221" s="114"/>
-      <c r="O221" s="114"/>
-      <c r="P221" s="114"/>
-      <c r="Q221" s="114"/>
-      <c r="R221" s="114"/>
-      <c r="S221" s="114"/>
-      <c r="T221" s="114"/>
-      <c r="U221" s="114"/>
-      <c r="V221" s="114"/>
-      <c r="W221" s="114"/>
-      <c r="X221" s="114"/>
-      <c r="Y221" s="114"/>
-      <c r="Z221" s="114"/>
-      <c r="AA221" s="114"/>
-      <c r="AB221" s="114"/>
-      <c r="AC221" s="114"/>
-      <c r="AD221" s="117" t="n">
+      <c r="J221" s="113"/>
+      <c r="K221" s="113"/>
+      <c r="L221" s="113"/>
+      <c r="M221" s="113"/>
+      <c r="N221" s="113"/>
+      <c r="O221" s="113"/>
+      <c r="P221" s="113"/>
+      <c r="Q221" s="113"/>
+      <c r="R221" s="113"/>
+      <c r="S221" s="113"/>
+      <c r="T221" s="113"/>
+      <c r="U221" s="113"/>
+      <c r="V221" s="113"/>
+      <c r="W221" s="113"/>
+      <c r="X221" s="113"/>
+      <c r="Y221" s="113"/>
+      <c r="Z221" s="113"/>
+      <c r="AA221" s="113"/>
+      <c r="AB221" s="113"/>
+      <c r="AC221" s="113"/>
+      <c r="AD221" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="AE221" s="114"/>
-      <c r="AF221" s="114"/>
-      <c r="AG221" s="114"/>
-      <c r="AH221" s="114"/>
-      <c r="AI221" s="114"/>
-      <c r="AJ221" s="118" t="s">
+      <c r="AE221" s="113"/>
+      <c r="AF221" s="113"/>
+      <c r="AG221" s="113"/>
+      <c r="AH221" s="113"/>
+      <c r="AI221" s="113"/>
+      <c r="AJ221" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="AK221" s="118"/>
+      <c r="AK221" s="117"/>
       <c r="AL221" s="31" t="n">
         <v>220</v>
       </c>
-      <c r="AM221" s="114"/>
-      <c r="AN221" s="114"/>
-      <c r="AO221" s="114"/>
+      <c r="AM221" s="113"/>
+      <c r="AN221" s="113"/>
+      <c r="AO221" s="113"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="n">
@@ -21490,7 +21485,7 @@
       <c r="C222" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D222" s="120" t="s">
+      <c r="D222" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E222" s="86" t="s">
@@ -21499,51 +21494,51 @@
       <c r="F222" s="86" t="s">
         <v>534</v>
       </c>
-      <c r="G222" s="114"/>
-      <c r="H222" s="114" t="s">
+      <c r="G222" s="113"/>
+      <c r="H222" s="113" t="s">
         <v>612</v>
       </c>
-      <c r="I222" s="116" t="s">
+      <c r="I222" s="115" t="s">
         <v>608</v>
       </c>
-      <c r="J222" s="114"/>
-      <c r="K222" s="114"/>
-      <c r="L222" s="114"/>
-      <c r="M222" s="114"/>
-      <c r="N222" s="114"/>
-      <c r="O222" s="114"/>
-      <c r="P222" s="114"/>
-      <c r="Q222" s="114"/>
-      <c r="R222" s="114"/>
-      <c r="S222" s="114"/>
-      <c r="T222" s="114"/>
-      <c r="U222" s="114"/>
-      <c r="V222" s="114"/>
-      <c r="W222" s="114"/>
-      <c r="X222" s="114"/>
-      <c r="Y222" s="114"/>
-      <c r="Z222" s="114"/>
-      <c r="AA222" s="114"/>
-      <c r="AB222" s="114"/>
-      <c r="AC222" s="114"/>
-      <c r="AD222" s="121" t="n">
+      <c r="J222" s="113"/>
+      <c r="K222" s="113"/>
+      <c r="L222" s="113"/>
+      <c r="M222" s="113"/>
+      <c r="N222" s="113"/>
+      <c r="O222" s="113"/>
+      <c r="P222" s="113"/>
+      <c r="Q222" s="113"/>
+      <c r="R222" s="113"/>
+      <c r="S222" s="113"/>
+      <c r="T222" s="113"/>
+      <c r="U222" s="113"/>
+      <c r="V222" s="113"/>
+      <c r="W222" s="113"/>
+      <c r="X222" s="113"/>
+      <c r="Y222" s="113"/>
+      <c r="Z222" s="113"/>
+      <c r="AA222" s="113"/>
+      <c r="AB222" s="113"/>
+      <c r="AC222" s="113"/>
+      <c r="AD222" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="AE222" s="114"/>
-      <c r="AF222" s="114"/>
-      <c r="AG222" s="114"/>
-      <c r="AH222" s="114"/>
-      <c r="AI222" s="114"/>
-      <c r="AJ222" s="118" t="s">
+      <c r="AE222" s="113"/>
+      <c r="AF222" s="113"/>
+      <c r="AG222" s="113"/>
+      <c r="AH222" s="113"/>
+      <c r="AI222" s="113"/>
+      <c r="AJ222" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="AK222" s="118"/>
+      <c r="AK222" s="117"/>
       <c r="AL222" s="22" t="n">
         <v>221</v>
       </c>
-      <c r="AM222" s="114"/>
-      <c r="AN222" s="114"/>
-      <c r="AO222" s="114"/>
+      <c r="AM222" s="113"/>
+      <c r="AN222" s="113"/>
+      <c r="AO222" s="113"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="25" t="n">
@@ -21555,7 +21550,7 @@
       <c r="C223" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D223" s="120" t="s">
+      <c r="D223" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E223" s="86" t="s">
@@ -21564,49 +21559,49 @@
       <c r="F223" s="86" t="s">
         <v>600</v>
       </c>
-      <c r="G223" s="114"/>
-      <c r="H223" s="114" t="s">
+      <c r="G223" s="113"/>
+      <c r="H223" s="113" t="s">
         <v>610</v>
       </c>
-      <c r="I223" s="116" t="s">
+      <c r="I223" s="115" t="s">
         <v>608</v>
       </c>
-      <c r="J223" s="114"/>
-      <c r="K223" s="114"/>
-      <c r="L223" s="114"/>
-      <c r="M223" s="114"/>
-      <c r="N223" s="114"/>
-      <c r="O223" s="114"/>
-      <c r="P223" s="114"/>
-      <c r="Q223" s="114"/>
-      <c r="R223" s="114"/>
-      <c r="S223" s="114"/>
-      <c r="T223" s="114"/>
-      <c r="U223" s="114"/>
-      <c r="V223" s="114"/>
-      <c r="W223" s="114"/>
-      <c r="X223" s="114"/>
-      <c r="Y223" s="114"/>
-      <c r="Z223" s="114"/>
-      <c r="AA223" s="114"/>
-      <c r="AB223" s="114"/>
-      <c r="AC223" s="114"/>
-      <c r="AD223" s="121" t="n">
+      <c r="J223" s="113"/>
+      <c r="K223" s="113"/>
+      <c r="L223" s="113"/>
+      <c r="M223" s="113"/>
+      <c r="N223" s="113"/>
+      <c r="O223" s="113"/>
+      <c r="P223" s="113"/>
+      <c r="Q223" s="113"/>
+      <c r="R223" s="113"/>
+      <c r="S223" s="113"/>
+      <c r="T223" s="113"/>
+      <c r="U223" s="113"/>
+      <c r="V223" s="113"/>
+      <c r="W223" s="113"/>
+      <c r="X223" s="113"/>
+      <c r="Y223" s="113"/>
+      <c r="Z223" s="113"/>
+      <c r="AA223" s="113"/>
+      <c r="AB223" s="113"/>
+      <c r="AC223" s="113"/>
+      <c r="AD223" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="AE223" s="114"/>
-      <c r="AF223" s="114"/>
-      <c r="AG223" s="114"/>
-      <c r="AH223" s="114"/>
-      <c r="AI223" s="114"/>
-      <c r="AJ223" s="118"/>
-      <c r="AK223" s="118"/>
+      <c r="AE223" s="113"/>
+      <c r="AF223" s="113"/>
+      <c r="AG223" s="113"/>
+      <c r="AH223" s="113"/>
+      <c r="AI223" s="113"/>
+      <c r="AJ223" s="117"/>
+      <c r="AK223" s="117"/>
       <c r="AL223" s="31" t="n">
         <v>222</v>
       </c>
-      <c r="AM223" s="114"/>
-      <c r="AN223" s="114"/>
-      <c r="AO223" s="114"/>
+      <c r="AM223" s="113"/>
+      <c r="AN223" s="113"/>
+      <c r="AO223" s="113"/>
     </row>
     <row r="224" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="15" t="n">
@@ -21618,7 +21613,7 @@
       <c r="C224" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D224" s="120" t="s">
+      <c r="D224" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E224" s="86" t="s">
@@ -21627,49 +21622,49 @@
       <c r="F224" s="86" t="s">
         <v>397</v>
       </c>
-      <c r="G224" s="114"/>
-      <c r="H224" s="115" t="s">
+      <c r="G224" s="113"/>
+      <c r="H224" s="114" t="s">
         <v>607</v>
       </c>
-      <c r="I224" s="116" t="s">
+      <c r="I224" s="115" t="s">
         <v>608</v>
       </c>
-      <c r="J224" s="114"/>
-      <c r="K224" s="114"/>
-      <c r="L224" s="114"/>
-      <c r="M224" s="114"/>
-      <c r="N224" s="114"/>
-      <c r="O224" s="114"/>
-      <c r="P224" s="114"/>
-      <c r="Q224" s="114"/>
-      <c r="R224" s="114"/>
-      <c r="S224" s="114"/>
-      <c r="T224" s="114"/>
-      <c r="U224" s="114"/>
-      <c r="V224" s="114"/>
-      <c r="W224" s="114"/>
-      <c r="X224" s="114"/>
-      <c r="Y224" s="114"/>
-      <c r="Z224" s="114"/>
-      <c r="AA224" s="114"/>
-      <c r="AB224" s="114"/>
-      <c r="AC224" s="114"/>
-      <c r="AD224" s="121" t="n">
+      <c r="J224" s="113"/>
+      <c r="K224" s="113"/>
+      <c r="L224" s="113"/>
+      <c r="M224" s="113"/>
+      <c r="N224" s="113"/>
+      <c r="O224" s="113"/>
+      <c r="P224" s="113"/>
+      <c r="Q224" s="113"/>
+      <c r="R224" s="113"/>
+      <c r="S224" s="113"/>
+      <c r="T224" s="113"/>
+      <c r="U224" s="113"/>
+      <c r="V224" s="113"/>
+      <c r="W224" s="113"/>
+      <c r="X224" s="113"/>
+      <c r="Y224" s="113"/>
+      <c r="Z224" s="113"/>
+      <c r="AA224" s="113"/>
+      <c r="AB224" s="113"/>
+      <c r="AC224" s="113"/>
+      <c r="AD224" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="AE224" s="114"/>
-      <c r="AF224" s="114"/>
-      <c r="AG224" s="114"/>
-      <c r="AH224" s="114"/>
-      <c r="AI224" s="114"/>
-      <c r="AJ224" s="118"/>
-      <c r="AK224" s="118"/>
+      <c r="AE224" s="113"/>
+      <c r="AF224" s="113"/>
+      <c r="AG224" s="113"/>
+      <c r="AH224" s="113"/>
+      <c r="AI224" s="113"/>
+      <c r="AJ224" s="117"/>
+      <c r="AK224" s="117"/>
       <c r="AL224" s="22" t="n">
         <v>223</v>
       </c>
-      <c r="AM224" s="114"/>
-      <c r="AN224" s="114"/>
-      <c r="AO224" s="114"/>
+      <c r="AM224" s="113"/>
+      <c r="AN224" s="113"/>
+      <c r="AO224" s="113"/>
     </row>
     <row r="225" customFormat="false" ht="53.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="25" t="n">
@@ -21681,7 +21676,7 @@
       <c r="C225" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D225" s="120" t="s">
+      <c r="D225" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E225" s="86" t="s">
@@ -21690,51 +21685,51 @@
       <c r="F225" s="86" t="s">
         <v>616</v>
       </c>
-      <c r="G225" s="114"/>
-      <c r="H225" s="115" t="s">
+      <c r="G225" s="113"/>
+      <c r="H225" s="114" t="s">
         <v>617</v>
       </c>
-      <c r="I225" s="116" t="s">
+      <c r="I225" s="115" t="s">
         <v>618</v>
       </c>
-      <c r="J225" s="114"/>
-      <c r="K225" s="114"/>
-      <c r="L225" s="114"/>
-      <c r="M225" s="114"/>
-      <c r="N225" s="114"/>
-      <c r="O225" s="114"/>
-      <c r="P225" s="114"/>
-      <c r="Q225" s="114"/>
-      <c r="R225" s="114"/>
-      <c r="S225" s="114"/>
-      <c r="T225" s="114"/>
-      <c r="U225" s="114"/>
-      <c r="V225" s="114"/>
-      <c r="W225" s="114"/>
-      <c r="X225" s="114"/>
-      <c r="Y225" s="114"/>
-      <c r="Z225" s="114"/>
-      <c r="AA225" s="114"/>
-      <c r="AB225" s="114"/>
-      <c r="AC225" s="114"/>
-      <c r="AD225" s="114" t="n">
+      <c r="J225" s="113"/>
+      <c r="K225" s="113"/>
+      <c r="L225" s="113"/>
+      <c r="M225" s="113"/>
+      <c r="N225" s="113"/>
+      <c r="O225" s="113"/>
+      <c r="P225" s="113"/>
+      <c r="Q225" s="113"/>
+      <c r="R225" s="113"/>
+      <c r="S225" s="113"/>
+      <c r="T225" s="113"/>
+      <c r="U225" s="113"/>
+      <c r="V225" s="113"/>
+      <c r="W225" s="113"/>
+      <c r="X225" s="113"/>
+      <c r="Y225" s="113"/>
+      <c r="Z225" s="113"/>
+      <c r="AA225" s="113"/>
+      <c r="AB225" s="113"/>
+      <c r="AC225" s="113"/>
+      <c r="AD225" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="AE225" s="114"/>
-      <c r="AF225" s="114"/>
-      <c r="AG225" s="114"/>
-      <c r="AH225" s="114"/>
-      <c r="AI225" s="114"/>
-      <c r="AJ225" s="118" t="s">
+      <c r="AE225" s="113"/>
+      <c r="AF225" s="113"/>
+      <c r="AG225" s="113"/>
+      <c r="AH225" s="113"/>
+      <c r="AI225" s="113"/>
+      <c r="AJ225" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="AK225" s="118"/>
+      <c r="AK225" s="117"/>
       <c r="AL225" s="31" t="n">
         <v>224</v>
       </c>
-      <c r="AM225" s="114"/>
-      <c r="AN225" s="114"/>
-      <c r="AO225" s="114"/>
+      <c r="AM225" s="113"/>
+      <c r="AN225" s="113"/>
+      <c r="AO225" s="113"/>
     </row>
     <row r="226" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="15" t="n">
@@ -21746,7 +21741,7 @@
       <c r="C226" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D226" s="120" t="s">
+      <c r="D226" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E226" s="86" t="s">
@@ -21755,51 +21750,51 @@
       <c r="F226" s="86" t="s">
         <v>620</v>
       </c>
-      <c r="G226" s="114"/>
-      <c r="H226" s="115" t="s">
+      <c r="G226" s="113"/>
+      <c r="H226" s="114" t="s">
         <v>621</v>
       </c>
-      <c r="I226" s="116" t="s">
+      <c r="I226" s="115" t="s">
         <v>618</v>
       </c>
-      <c r="J226" s="114"/>
-      <c r="K226" s="114"/>
-      <c r="L226" s="114"/>
-      <c r="M226" s="114"/>
-      <c r="N226" s="114"/>
-      <c r="O226" s="114"/>
-      <c r="P226" s="114"/>
-      <c r="Q226" s="114"/>
-      <c r="R226" s="114"/>
-      <c r="S226" s="114"/>
-      <c r="T226" s="114"/>
-      <c r="U226" s="114"/>
-      <c r="V226" s="114"/>
-      <c r="W226" s="114"/>
-      <c r="X226" s="114"/>
-      <c r="Y226" s="114"/>
-      <c r="Z226" s="114"/>
-      <c r="AA226" s="114"/>
-      <c r="AB226" s="114"/>
-      <c r="AC226" s="114"/>
-      <c r="AD226" s="114" t="n">
+      <c r="J226" s="113"/>
+      <c r="K226" s="113"/>
+      <c r="L226" s="113"/>
+      <c r="M226" s="113"/>
+      <c r="N226" s="113"/>
+      <c r="O226" s="113"/>
+      <c r="P226" s="113"/>
+      <c r="Q226" s="113"/>
+      <c r="R226" s="113"/>
+      <c r="S226" s="113"/>
+      <c r="T226" s="113"/>
+      <c r="U226" s="113"/>
+      <c r="V226" s="113"/>
+      <c r="W226" s="113"/>
+      <c r="X226" s="113"/>
+      <c r="Y226" s="113"/>
+      <c r="Z226" s="113"/>
+      <c r="AA226" s="113"/>
+      <c r="AB226" s="113"/>
+      <c r="AC226" s="113"/>
+      <c r="AD226" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="AE226" s="114"/>
-      <c r="AF226" s="114"/>
-      <c r="AG226" s="114"/>
-      <c r="AH226" s="114"/>
-      <c r="AI226" s="114"/>
-      <c r="AJ226" s="118" t="s">
+      <c r="AE226" s="113"/>
+      <c r="AF226" s="113"/>
+      <c r="AG226" s="113"/>
+      <c r="AH226" s="113"/>
+      <c r="AI226" s="113"/>
+      <c r="AJ226" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="AK226" s="118"/>
+      <c r="AK226" s="117"/>
       <c r="AL226" s="22" t="n">
         <v>225</v>
       </c>
-      <c r="AM226" s="114"/>
-      <c r="AN226" s="114"/>
-      <c r="AO226" s="114"/>
+      <c r="AM226" s="113"/>
+      <c r="AN226" s="113"/>
+      <c r="AO226" s="113"/>
     </row>
     <row r="227" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="25" t="n">
@@ -21811,7 +21806,7 @@
       <c r="C227" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D227" s="120" t="s">
+      <c r="D227" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E227" s="86" t="s">
@@ -21820,51 +21815,51 @@
       <c r="F227" s="86" t="s">
         <v>623</v>
       </c>
-      <c r="G227" s="114"/>
-      <c r="H227" s="115" t="s">
+      <c r="G227" s="113"/>
+      <c r="H227" s="114" t="s">
         <v>624</v>
       </c>
-      <c r="I227" s="116" t="s">
+      <c r="I227" s="115" t="s">
         <v>618</v>
       </c>
-      <c r="J227" s="114"/>
-      <c r="K227" s="114"/>
-      <c r="L227" s="114"/>
-      <c r="M227" s="114"/>
-      <c r="N227" s="114"/>
-      <c r="O227" s="114"/>
-      <c r="P227" s="114"/>
-      <c r="Q227" s="114"/>
-      <c r="R227" s="114"/>
-      <c r="S227" s="114"/>
-      <c r="T227" s="114"/>
-      <c r="U227" s="114"/>
-      <c r="V227" s="114"/>
-      <c r="W227" s="114"/>
-      <c r="X227" s="114"/>
-      <c r="Y227" s="114"/>
-      <c r="Z227" s="114"/>
-      <c r="AA227" s="114"/>
-      <c r="AB227" s="114"/>
-      <c r="AC227" s="114"/>
-      <c r="AD227" s="114" t="n">
+      <c r="J227" s="113"/>
+      <c r="K227" s="113"/>
+      <c r="L227" s="113"/>
+      <c r="M227" s="113"/>
+      <c r="N227" s="113"/>
+      <c r="O227" s="113"/>
+      <c r="P227" s="113"/>
+      <c r="Q227" s="113"/>
+      <c r="R227" s="113"/>
+      <c r="S227" s="113"/>
+      <c r="T227" s="113"/>
+      <c r="U227" s="113"/>
+      <c r="V227" s="113"/>
+      <c r="W227" s="113"/>
+      <c r="X227" s="113"/>
+      <c r="Y227" s="113"/>
+      <c r="Z227" s="113"/>
+      <c r="AA227" s="113"/>
+      <c r="AB227" s="113"/>
+      <c r="AC227" s="113"/>
+      <c r="AD227" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="AE227" s="114"/>
-      <c r="AF227" s="114"/>
-      <c r="AG227" s="114"/>
-      <c r="AH227" s="114"/>
-      <c r="AI227" s="114"/>
-      <c r="AJ227" s="118" t="s">
+      <c r="AE227" s="113"/>
+      <c r="AF227" s="113"/>
+      <c r="AG227" s="113"/>
+      <c r="AH227" s="113"/>
+      <c r="AI227" s="113"/>
+      <c r="AJ227" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="AK227" s="118"/>
+      <c r="AK227" s="117"/>
       <c r="AL227" s="31" t="n">
         <v>226</v>
       </c>
-      <c r="AM227" s="114"/>
-      <c r="AN227" s="114"/>
-      <c r="AO227" s="114"/>
+      <c r="AM227" s="113"/>
+      <c r="AN227" s="113"/>
+      <c r="AO227" s="113"/>
     </row>
     <row r="228" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="15" t="n">
@@ -21876,7 +21871,7 @@
       <c r="C228" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D228" s="120" t="s">
+      <c r="D228" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E228" s="86" t="s">
@@ -21885,51 +21880,51 @@
       <c r="F228" s="86" t="s">
         <v>626</v>
       </c>
-      <c r="G228" s="114"/>
-      <c r="H228" s="115" t="s">
+      <c r="G228" s="113"/>
+      <c r="H228" s="114" t="s">
         <v>627</v>
       </c>
-      <c r="I228" s="116" t="s">
+      <c r="I228" s="115" t="s">
         <v>618</v>
       </c>
-      <c r="J228" s="114"/>
-      <c r="K228" s="114"/>
-      <c r="L228" s="114"/>
-      <c r="M228" s="114"/>
-      <c r="N228" s="114"/>
-      <c r="O228" s="114"/>
-      <c r="P228" s="114"/>
-      <c r="Q228" s="114"/>
-      <c r="R228" s="114"/>
-      <c r="S228" s="114"/>
-      <c r="T228" s="114"/>
-      <c r="U228" s="114"/>
-      <c r="V228" s="114"/>
-      <c r="W228" s="114"/>
-      <c r="X228" s="114"/>
-      <c r="Y228" s="114"/>
-      <c r="Z228" s="114"/>
-      <c r="AA228" s="114"/>
-      <c r="AB228" s="114"/>
-      <c r="AC228" s="114"/>
-      <c r="AD228" s="114" t="n">
+      <c r="J228" s="113"/>
+      <c r="K228" s="113"/>
+      <c r="L228" s="113"/>
+      <c r="M228" s="113"/>
+      <c r="N228" s="113"/>
+      <c r="O228" s="113"/>
+      <c r="P228" s="113"/>
+      <c r="Q228" s="113"/>
+      <c r="R228" s="113"/>
+      <c r="S228" s="113"/>
+      <c r="T228" s="113"/>
+      <c r="U228" s="113"/>
+      <c r="V228" s="113"/>
+      <c r="W228" s="113"/>
+      <c r="X228" s="113"/>
+      <c r="Y228" s="113"/>
+      <c r="Z228" s="113"/>
+      <c r="AA228" s="113"/>
+      <c r="AB228" s="113"/>
+      <c r="AC228" s="113"/>
+      <c r="AD228" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="AE228" s="114"/>
-      <c r="AF228" s="114"/>
-      <c r="AG228" s="114"/>
-      <c r="AH228" s="114"/>
-      <c r="AI228" s="114"/>
-      <c r="AJ228" s="118" t="s">
+      <c r="AE228" s="113"/>
+      <c r="AF228" s="113"/>
+      <c r="AG228" s="113"/>
+      <c r="AH228" s="113"/>
+      <c r="AI228" s="113"/>
+      <c r="AJ228" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="AK228" s="118"/>
+      <c r="AK228" s="117"/>
       <c r="AL228" s="22" t="n">
         <v>227</v>
       </c>
-      <c r="AM228" s="114"/>
-      <c r="AN228" s="114"/>
-      <c r="AO228" s="114"/>
+      <c r="AM228" s="113"/>
+      <c r="AN228" s="113"/>
+      <c r="AO228" s="113"/>
     </row>
     <row r="229" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="25" t="n">
@@ -21941,7 +21936,7 @@
       <c r="C229" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D229" s="120" t="s">
+      <c r="D229" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E229" s="86" t="s">
@@ -21950,49 +21945,49 @@
       <c r="F229" s="86" t="s">
         <v>629</v>
       </c>
-      <c r="G229" s="114" t="s">
+      <c r="G229" s="113" t="s">
         <v>377</v>
       </c>
-      <c r="H229" s="115" t="s">
+      <c r="H229" s="114" t="s">
         <v>630</v>
       </c>
-      <c r="I229" s="116" t="s">
+      <c r="I229" s="115" t="s">
         <v>618</v>
       </c>
-      <c r="J229" s="114"/>
-      <c r="K229" s="114"/>
-      <c r="L229" s="114"/>
-      <c r="M229" s="114"/>
-      <c r="N229" s="114"/>
-      <c r="O229" s="114"/>
-      <c r="P229" s="114"/>
-      <c r="Q229" s="114"/>
-      <c r="R229" s="114"/>
-      <c r="S229" s="114"/>
-      <c r="T229" s="114"/>
-      <c r="U229" s="114"/>
-      <c r="V229" s="114"/>
-      <c r="W229" s="114"/>
-      <c r="X229" s="114"/>
-      <c r="Y229" s="114"/>
-      <c r="Z229" s="114"/>
-      <c r="AA229" s="114"/>
-      <c r="AB229" s="114"/>
-      <c r="AC229" s="114"/>
-      <c r="AD229" s="114"/>
-      <c r="AE229" s="114"/>
-      <c r="AF229" s="114"/>
-      <c r="AG229" s="114"/>
-      <c r="AH229" s="114"/>
-      <c r="AI229" s="114"/>
-      <c r="AJ229" s="118"/>
-      <c r="AK229" s="118"/>
+      <c r="J229" s="113"/>
+      <c r="K229" s="113"/>
+      <c r="L229" s="113"/>
+      <c r="M229" s="113"/>
+      <c r="N229" s="113"/>
+      <c r="O229" s="113"/>
+      <c r="P229" s="113"/>
+      <c r="Q229" s="113"/>
+      <c r="R229" s="113"/>
+      <c r="S229" s="113"/>
+      <c r="T229" s="113"/>
+      <c r="U229" s="113"/>
+      <c r="V229" s="113"/>
+      <c r="W229" s="113"/>
+      <c r="X229" s="113"/>
+      <c r="Y229" s="113"/>
+      <c r="Z229" s="113"/>
+      <c r="AA229" s="113"/>
+      <c r="AB229" s="113"/>
+      <c r="AC229" s="113"/>
+      <c r="AD229" s="113"/>
+      <c r="AE229" s="113"/>
+      <c r="AF229" s="113"/>
+      <c r="AG229" s="113"/>
+      <c r="AH229" s="113"/>
+      <c r="AI229" s="113"/>
+      <c r="AJ229" s="117"/>
+      <c r="AK229" s="117"/>
       <c r="AL229" s="31" t="n">
         <v>228</v>
       </c>
-      <c r="AM229" s="114"/>
-      <c r="AN229" s="114"/>
-      <c r="AO229" s="114"/>
+      <c r="AM229" s="113"/>
+      <c r="AN229" s="113"/>
+      <c r="AO229" s="113"/>
     </row>
     <row r="230" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="15" t="n">
@@ -22004,7 +21999,7 @@
       <c r="C230" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D230" s="120" t="s">
+      <c r="D230" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E230" s="86" t="s">
@@ -22013,49 +22008,49 @@
       <c r="F230" s="86" t="s">
         <v>629</v>
       </c>
-      <c r="G230" s="114" t="s">
+      <c r="G230" s="113" t="s">
         <v>404</v>
       </c>
-      <c r="H230" s="115" t="s">
+      <c r="H230" s="114" t="s">
         <v>631</v>
       </c>
-      <c r="I230" s="116" t="s">
+      <c r="I230" s="115" t="s">
         <v>618</v>
       </c>
-      <c r="J230" s="114"/>
-      <c r="K230" s="114"/>
-      <c r="L230" s="114"/>
-      <c r="M230" s="114"/>
-      <c r="N230" s="114"/>
-      <c r="O230" s="114"/>
-      <c r="P230" s="114"/>
-      <c r="Q230" s="114"/>
-      <c r="R230" s="114"/>
-      <c r="S230" s="114"/>
-      <c r="T230" s="114"/>
-      <c r="U230" s="114"/>
-      <c r="V230" s="114"/>
-      <c r="W230" s="114"/>
-      <c r="X230" s="114"/>
-      <c r="Y230" s="114"/>
-      <c r="Z230" s="114"/>
-      <c r="AA230" s="114"/>
-      <c r="AB230" s="114"/>
-      <c r="AC230" s="114"/>
-      <c r="AD230" s="114"/>
-      <c r="AE230" s="114"/>
-      <c r="AF230" s="114"/>
-      <c r="AG230" s="114"/>
-      <c r="AH230" s="114"/>
-      <c r="AI230" s="114"/>
-      <c r="AJ230" s="118"/>
-      <c r="AK230" s="118"/>
+      <c r="J230" s="113"/>
+      <c r="K230" s="113"/>
+      <c r="L230" s="113"/>
+      <c r="M230" s="113"/>
+      <c r="N230" s="113"/>
+      <c r="O230" s="113"/>
+      <c r="P230" s="113"/>
+      <c r="Q230" s="113"/>
+      <c r="R230" s="113"/>
+      <c r="S230" s="113"/>
+      <c r="T230" s="113"/>
+      <c r="U230" s="113"/>
+      <c r="V230" s="113"/>
+      <c r="W230" s="113"/>
+      <c r="X230" s="113"/>
+      <c r="Y230" s="113"/>
+      <c r="Z230" s="113"/>
+      <c r="AA230" s="113"/>
+      <c r="AB230" s="113"/>
+      <c r="AC230" s="113"/>
+      <c r="AD230" s="113"/>
+      <c r="AE230" s="113"/>
+      <c r="AF230" s="113"/>
+      <c r="AG230" s="113"/>
+      <c r="AH230" s="113"/>
+      <c r="AI230" s="113"/>
+      <c r="AJ230" s="117"/>
+      <c r="AK230" s="117"/>
       <c r="AL230" s="22" t="n">
         <v>229</v>
       </c>
-      <c r="AM230" s="114"/>
-      <c r="AN230" s="114"/>
-      <c r="AO230" s="114"/>
+      <c r="AM230" s="113"/>
+      <c r="AN230" s="113"/>
+      <c r="AO230" s="113"/>
     </row>
     <row r="231" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="25" t="n">
@@ -22067,7 +22062,7 @@
       <c r="C231" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D231" s="120" t="s">
+      <c r="D231" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E231" s="86" t="s">
@@ -22076,49 +22071,49 @@
       <c r="F231" s="86" t="s">
         <v>629</v>
       </c>
-      <c r="G231" s="114" t="s">
+      <c r="G231" s="113" t="s">
         <v>435</v>
       </c>
-      <c r="H231" s="115" t="s">
+      <c r="H231" s="114" t="s">
         <v>631</v>
       </c>
-      <c r="I231" s="116" t="s">
+      <c r="I231" s="115" t="s">
         <v>618</v>
       </c>
-      <c r="J231" s="114"/>
-      <c r="K231" s="114"/>
-      <c r="L231" s="114"/>
-      <c r="M231" s="114"/>
-      <c r="N231" s="114"/>
-      <c r="O231" s="114"/>
-      <c r="P231" s="114"/>
-      <c r="Q231" s="114"/>
-      <c r="R231" s="114"/>
-      <c r="S231" s="114"/>
-      <c r="T231" s="114"/>
-      <c r="U231" s="114"/>
-      <c r="V231" s="114"/>
-      <c r="W231" s="114"/>
-      <c r="X231" s="114"/>
-      <c r="Y231" s="114"/>
-      <c r="Z231" s="114"/>
-      <c r="AA231" s="114"/>
-      <c r="AB231" s="114"/>
-      <c r="AC231" s="114"/>
-      <c r="AD231" s="114"/>
-      <c r="AE231" s="114"/>
-      <c r="AF231" s="114"/>
-      <c r="AG231" s="114"/>
-      <c r="AH231" s="114"/>
-      <c r="AI231" s="114"/>
-      <c r="AJ231" s="118"/>
-      <c r="AK231" s="118"/>
+      <c r="J231" s="113"/>
+      <c r="K231" s="113"/>
+      <c r="L231" s="113"/>
+      <c r="M231" s="113"/>
+      <c r="N231" s="113"/>
+      <c r="O231" s="113"/>
+      <c r="P231" s="113"/>
+      <c r="Q231" s="113"/>
+      <c r="R231" s="113"/>
+      <c r="S231" s="113"/>
+      <c r="T231" s="113"/>
+      <c r="U231" s="113"/>
+      <c r="V231" s="113"/>
+      <c r="W231" s="113"/>
+      <c r="X231" s="113"/>
+      <c r="Y231" s="113"/>
+      <c r="Z231" s="113"/>
+      <c r="AA231" s="113"/>
+      <c r="AB231" s="113"/>
+      <c r="AC231" s="113"/>
+      <c r="AD231" s="113"/>
+      <c r="AE231" s="113"/>
+      <c r="AF231" s="113"/>
+      <c r="AG231" s="113"/>
+      <c r="AH231" s="113"/>
+      <c r="AI231" s="113"/>
+      <c r="AJ231" s="117"/>
+      <c r="AK231" s="117"/>
       <c r="AL231" s="31" t="n">
         <v>230</v>
       </c>
-      <c r="AM231" s="114"/>
-      <c r="AN231" s="114"/>
-      <c r="AO231" s="114"/>
+      <c r="AM231" s="113"/>
+      <c r="AN231" s="113"/>
+      <c r="AO231" s="113"/>
     </row>
     <row r="232" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="n">
@@ -22130,7 +22125,7 @@
       <c r="C232" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D232" s="120" t="s">
+      <c r="D232" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E232" s="86" t="s">
@@ -22139,49 +22134,49 @@
       <c r="F232" s="86" t="s">
         <v>629</v>
       </c>
-      <c r="G232" s="114" t="s">
+      <c r="G232" s="113" t="s">
         <v>453</v>
       </c>
-      <c r="H232" s="115" t="s">
+      <c r="H232" s="114" t="s">
         <v>632</v>
       </c>
-      <c r="I232" s="116" t="s">
+      <c r="I232" s="115" t="s">
         <v>618</v>
       </c>
-      <c r="J232" s="114"/>
-      <c r="K232" s="114"/>
-      <c r="L232" s="114"/>
-      <c r="M232" s="114"/>
-      <c r="N232" s="114"/>
-      <c r="O232" s="114"/>
-      <c r="P232" s="114"/>
-      <c r="Q232" s="114"/>
-      <c r="R232" s="114"/>
-      <c r="S232" s="114"/>
-      <c r="T232" s="114"/>
-      <c r="U232" s="114"/>
-      <c r="V232" s="114"/>
-      <c r="W232" s="114"/>
-      <c r="X232" s="114"/>
-      <c r="Y232" s="114"/>
-      <c r="Z232" s="114"/>
-      <c r="AA232" s="114"/>
-      <c r="AB232" s="114"/>
-      <c r="AC232" s="114"/>
-      <c r="AD232" s="114"/>
-      <c r="AE232" s="114"/>
-      <c r="AF232" s="114"/>
-      <c r="AG232" s="114"/>
-      <c r="AH232" s="114"/>
-      <c r="AI232" s="114"/>
-      <c r="AJ232" s="118"/>
-      <c r="AK232" s="118"/>
+      <c r="J232" s="113"/>
+      <c r="K232" s="113"/>
+      <c r="L232" s="113"/>
+      <c r="M232" s="113"/>
+      <c r="N232" s="113"/>
+      <c r="O232" s="113"/>
+      <c r="P232" s="113"/>
+      <c r="Q232" s="113"/>
+      <c r="R232" s="113"/>
+      <c r="S232" s="113"/>
+      <c r="T232" s="113"/>
+      <c r="U232" s="113"/>
+      <c r="V232" s="113"/>
+      <c r="W232" s="113"/>
+      <c r="X232" s="113"/>
+      <c r="Y232" s="113"/>
+      <c r="Z232" s="113"/>
+      <c r="AA232" s="113"/>
+      <c r="AB232" s="113"/>
+      <c r="AC232" s="113"/>
+      <c r="AD232" s="113"/>
+      <c r="AE232" s="113"/>
+      <c r="AF232" s="113"/>
+      <c r="AG232" s="113"/>
+      <c r="AH232" s="113"/>
+      <c r="AI232" s="113"/>
+      <c r="AJ232" s="117"/>
+      <c r="AK232" s="117"/>
       <c r="AL232" s="22" t="n">
         <v>231</v>
       </c>
-      <c r="AM232" s="114"/>
-      <c r="AN232" s="114"/>
-      <c r="AO232" s="114"/>
+      <c r="AM232" s="113"/>
+      <c r="AN232" s="113"/>
+      <c r="AO232" s="113"/>
     </row>
     <row r="233" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="25" t="n">
@@ -22193,7 +22188,7 @@
       <c r="C233" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D233" s="120" t="s">
+      <c r="D233" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E233" s="86" t="s">
@@ -22202,49 +22197,49 @@
       <c r="F233" s="86" t="s">
         <v>629</v>
       </c>
-      <c r="G233" s="114" t="s">
+      <c r="G233" s="113" t="s">
         <v>471</v>
       </c>
-      <c r="H233" s="115" t="s">
+      <c r="H233" s="114" t="s">
         <v>630</v>
       </c>
-      <c r="I233" s="116" t="s">
+      <c r="I233" s="115" t="s">
         <v>618</v>
       </c>
-      <c r="J233" s="114"/>
-      <c r="K233" s="114"/>
-      <c r="L233" s="114"/>
-      <c r="M233" s="114"/>
-      <c r="N233" s="114"/>
-      <c r="O233" s="114"/>
-      <c r="P233" s="114"/>
-      <c r="Q233" s="114"/>
-      <c r="R233" s="114"/>
-      <c r="S233" s="114"/>
-      <c r="T233" s="114"/>
-      <c r="U233" s="114"/>
-      <c r="V233" s="114"/>
-      <c r="W233" s="114"/>
-      <c r="X233" s="114"/>
-      <c r="Y233" s="114"/>
-      <c r="Z233" s="114"/>
-      <c r="AA233" s="114"/>
-      <c r="AB233" s="114"/>
-      <c r="AC233" s="114"/>
-      <c r="AD233" s="114"/>
-      <c r="AE233" s="114"/>
-      <c r="AF233" s="114"/>
-      <c r="AG233" s="114"/>
-      <c r="AH233" s="114"/>
-      <c r="AI233" s="114"/>
-      <c r="AJ233" s="118"/>
-      <c r="AK233" s="118"/>
+      <c r="J233" s="113"/>
+      <c r="K233" s="113"/>
+      <c r="L233" s="113"/>
+      <c r="M233" s="113"/>
+      <c r="N233" s="113"/>
+      <c r="O233" s="113"/>
+      <c r="P233" s="113"/>
+      <c r="Q233" s="113"/>
+      <c r="R233" s="113"/>
+      <c r="S233" s="113"/>
+      <c r="T233" s="113"/>
+      <c r="U233" s="113"/>
+      <c r="V233" s="113"/>
+      <c r="W233" s="113"/>
+      <c r="X233" s="113"/>
+      <c r="Y233" s="113"/>
+      <c r="Z233" s="113"/>
+      <c r="AA233" s="113"/>
+      <c r="AB233" s="113"/>
+      <c r="AC233" s="113"/>
+      <c r="AD233" s="113"/>
+      <c r="AE233" s="113"/>
+      <c r="AF233" s="113"/>
+      <c r="AG233" s="113"/>
+      <c r="AH233" s="113"/>
+      <c r="AI233" s="113"/>
+      <c r="AJ233" s="117"/>
+      <c r="AK233" s="117"/>
       <c r="AL233" s="31" t="n">
         <v>232</v>
       </c>
-      <c r="AM233" s="114"/>
-      <c r="AN233" s="114"/>
-      <c r="AO233" s="114"/>
+      <c r="AM233" s="113"/>
+      <c r="AN233" s="113"/>
+      <c r="AO233" s="113"/>
     </row>
     <row r="234" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="15" t="n">
@@ -22256,7 +22251,7 @@
       <c r="C234" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D234" s="120" t="s">
+      <c r="D234" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E234" s="86" t="s">
@@ -22265,49 +22260,49 @@
       <c r="F234" s="86" t="s">
         <v>629</v>
       </c>
-      <c r="G234" s="114" t="s">
+      <c r="G234" s="113" t="s">
         <v>483</v>
       </c>
-      <c r="H234" s="115" t="s">
+      <c r="H234" s="114" t="s">
         <v>630</v>
       </c>
-      <c r="I234" s="116" t="s">
+      <c r="I234" s="115" t="s">
         <v>618</v>
       </c>
-      <c r="J234" s="114"/>
-      <c r="K234" s="114"/>
-      <c r="L234" s="114"/>
-      <c r="M234" s="114"/>
-      <c r="N234" s="114"/>
-      <c r="O234" s="114"/>
-      <c r="P234" s="114"/>
-      <c r="Q234" s="114"/>
-      <c r="R234" s="114"/>
-      <c r="S234" s="114"/>
-      <c r="T234" s="114"/>
-      <c r="U234" s="114"/>
-      <c r="V234" s="114"/>
-      <c r="W234" s="114"/>
-      <c r="X234" s="114"/>
-      <c r="Y234" s="114"/>
-      <c r="Z234" s="114"/>
-      <c r="AA234" s="114"/>
-      <c r="AB234" s="114"/>
-      <c r="AC234" s="114"/>
-      <c r="AD234" s="114"/>
-      <c r="AE234" s="114"/>
-      <c r="AF234" s="114"/>
-      <c r="AG234" s="114"/>
-      <c r="AH234" s="114"/>
-      <c r="AI234" s="114"/>
-      <c r="AJ234" s="118"/>
-      <c r="AK234" s="118"/>
+      <c r="J234" s="113"/>
+      <c r="K234" s="113"/>
+      <c r="L234" s="113"/>
+      <c r="M234" s="113"/>
+      <c r="N234" s="113"/>
+      <c r="O234" s="113"/>
+      <c r="P234" s="113"/>
+      <c r="Q234" s="113"/>
+      <c r="R234" s="113"/>
+      <c r="S234" s="113"/>
+      <c r="T234" s="113"/>
+      <c r="U234" s="113"/>
+      <c r="V234" s="113"/>
+      <c r="W234" s="113"/>
+      <c r="X234" s="113"/>
+      <c r="Y234" s="113"/>
+      <c r="Z234" s="113"/>
+      <c r="AA234" s="113"/>
+      <c r="AB234" s="113"/>
+      <c r="AC234" s="113"/>
+      <c r="AD234" s="113"/>
+      <c r="AE234" s="113"/>
+      <c r="AF234" s="113"/>
+      <c r="AG234" s="113"/>
+      <c r="AH234" s="113"/>
+      <c r="AI234" s="113"/>
+      <c r="AJ234" s="117"/>
+      <c r="AK234" s="117"/>
       <c r="AL234" s="22" t="n">
         <v>233</v>
       </c>
-      <c r="AM234" s="114"/>
-      <c r="AN234" s="114"/>
-      <c r="AO234" s="114"/>
+      <c r="AM234" s="113"/>
+      <c r="AN234" s="113"/>
+      <c r="AO234" s="113"/>
     </row>
     <row r="235" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="25" t="n">
@@ -22319,7 +22314,7 @@
       <c r="C235" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D235" s="120" t="s">
+      <c r="D235" s="119" t="s">
         <v>605</v>
       </c>
       <c r="E235" s="86" t="s">
@@ -22328,49 +22323,49 @@
       <c r="F235" s="86" t="s">
         <v>629</v>
       </c>
-      <c r="G235" s="114" t="s">
+      <c r="G235" s="113" t="s">
         <v>494</v>
       </c>
-      <c r="H235" s="115" t="s">
+      <c r="H235" s="114" t="s">
         <v>632</v>
       </c>
-      <c r="I235" s="116" t="s">
+      <c r="I235" s="115" t="s">
         <v>618</v>
       </c>
-      <c r="J235" s="114"/>
-      <c r="K235" s="114"/>
-      <c r="L235" s="114"/>
-      <c r="M235" s="114"/>
-      <c r="N235" s="114"/>
-      <c r="O235" s="114"/>
-      <c r="P235" s="114"/>
-      <c r="Q235" s="114"/>
-      <c r="R235" s="114"/>
-      <c r="S235" s="114"/>
-      <c r="T235" s="114"/>
-      <c r="U235" s="114"/>
-      <c r="V235" s="114"/>
-      <c r="W235" s="114"/>
-      <c r="X235" s="114"/>
-      <c r="Y235" s="114"/>
-      <c r="Z235" s="114"/>
-      <c r="AA235" s="114"/>
-      <c r="AB235" s="114"/>
-      <c r="AC235" s="114"/>
-      <c r="AD235" s="114"/>
-      <c r="AE235" s="114"/>
-      <c r="AF235" s="114"/>
-      <c r="AG235" s="114"/>
-      <c r="AH235" s="114"/>
-      <c r="AI235" s="114"/>
-      <c r="AJ235" s="118"/>
-      <c r="AK235" s="118"/>
+      <c r="J235" s="113"/>
+      <c r="K235" s="113"/>
+      <c r="L235" s="113"/>
+      <c r="M235" s="113"/>
+      <c r="N235" s="113"/>
+      <c r="O235" s="113"/>
+      <c r="P235" s="113"/>
+      <c r="Q235" s="113"/>
+      <c r="R235" s="113"/>
+      <c r="S235" s="113"/>
+      <c r="T235" s="113"/>
+      <c r="U235" s="113"/>
+      <c r="V235" s="113"/>
+      <c r="W235" s="113"/>
+      <c r="X235" s="113"/>
+      <c r="Y235" s="113"/>
+      <c r="Z235" s="113"/>
+      <c r="AA235" s="113"/>
+      <c r="AB235" s="113"/>
+      <c r="AC235" s="113"/>
+      <c r="AD235" s="113"/>
+      <c r="AE235" s="113"/>
+      <c r="AF235" s="113"/>
+      <c r="AG235" s="113"/>
+      <c r="AH235" s="113"/>
+      <c r="AI235" s="113"/>
+      <c r="AJ235" s="117"/>
+      <c r="AK235" s="117"/>
       <c r="AL235" s="22" t="n">
         <v>234</v>
       </c>
-      <c r="AM235" s="114"/>
-      <c r="AN235" s="114"/>
-      <c r="AO235" s="114"/>
+      <c r="AM235" s="113"/>
+      <c r="AN235" s="113"/>
+      <c r="AO235" s="113"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AP235"/>
@@ -22393,16 +22388,16 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC195:AF195 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="121" t="s">
         <v>587</v>
       </c>
     </row>
@@ -22430,57 +22425,57 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC195:AF195 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="123" t="s">
         <v>633</v>
       </c>
-      <c r="H1" s="124" t="s">
+      <c r="H1" s="123" t="s">
         <v>634</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="123" t="s">
         <v>635</v>
       </c>
-      <c r="L1" s="124" t="s">
+      <c r="L1" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="124" t="s">
+      <c r="M1" s="123" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="124" t="s">
         <v>636</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/Supermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Supermarket PoS 2018.xlsx
@@ -36,6 +36,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2932,21 +2933,21 @@
   <dimension ref="A1:AO235"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K218" activeCellId="0" sqref="K218"/>
+      <selection pane="bottomLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.1295546558704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.3765182186235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,7 +4929,7 @@
       </c>
       <c r="AO23" s="35"/>
     </row>
-    <row r="24" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="n">
         <v>23</v>
       </c>
@@ -5013,7 +5014,7 @@
       </c>
       <c r="AO24" s="35"/>
     </row>
-    <row r="25" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="n">
         <v>24</v>
       </c>
@@ -5098,7 +5099,7 @@
       </c>
       <c r="AO25" s="35"/>
     </row>
-    <row r="26" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="n">
         <v>25</v>
       </c>
@@ -22393,7 +22394,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22430,7 +22431,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/Supermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Supermarket PoS 2018.xlsx
@@ -41,6 +41,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="668">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2039,10 +2040,13 @@
     <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
   </si>
   <si>
+    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT</t>
+  </si>
+  <si>
     <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNT</t>
   </si>
   <si>
     <t xml:space="preserve">Hidden</t>
@@ -3208,21 +3212,21 @@
   <dimension ref="A1:AQ65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AO235" activeCellId="0" sqref="AO235"/>
+      <selection pane="bottomLeft" activeCell="E219" activeCellId="0" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2550607287449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="34" min="16" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.10526315789474"/>
@@ -22010,14 +22014,16 @@
       <c r="H219" s="113" t="s">
         <v>607</v>
       </c>
-      <c r="I219" s="118" t="s">
+      <c r="I219" s="81" t="s">
         <v>608</v>
       </c>
       <c r="J219" s="118"/>
       <c r="K219" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" s="58" t="n">
         <v>8</v>
       </c>
-      <c r="L219" s="58"/>
       <c r="M219" s="58"/>
       <c r="N219" s="58" t="s">
         <v>308</v>
@@ -22056,7 +22062,9 @@
       </c>
       <c r="AG219" s="58"/>
       <c r="AH219" s="58"/>
-      <c r="AI219" s="58"/>
+      <c r="AI219" s="57" t="s">
+        <v>610</v>
+      </c>
       <c r="AJ219" s="58"/>
       <c r="AK219" s="58"/>
       <c r="AL219" s="14" t="n">
@@ -22083,23 +22091,23 @@
         <v>44</v>
       </c>
       <c r="D220" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E220" s="121" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F220" s="121" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G220" s="121" t="s">
         <v>402</v>
       </c>
       <c r="H220" s="122"/>
       <c r="I220" s="36" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J220" s="123" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K220" s="124"/>
       <c r="L220" s="124"/>
@@ -22110,7 +22118,7 @@
       <c r="Q220" s="124"/>
       <c r="R220" s="124"/>
       <c r="S220" s="124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T220" s="124"/>
       <c r="U220" s="124"/>
@@ -22138,7 +22146,7 @@
         <v>219</v>
       </c>
       <c r="AO220" s="123" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AP220" s="124"/>
       <c r="AQ220" s="124"/>
@@ -22154,23 +22162,23 @@
         <v>44</v>
       </c>
       <c r="D221" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E221" s="127" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F221" s="127" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G221" s="128" t="s">
         <v>321</v>
       </c>
       <c r="H221" s="128"/>
       <c r="I221" s="43" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J221" s="124" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K221" s="124"/>
       <c r="L221" s="124"/>
@@ -22181,7 +22189,7 @@
       <c r="Q221" s="124"/>
       <c r="R221" s="124"/>
       <c r="S221" s="124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T221" s="124"/>
       <c r="U221" s="124"/>
@@ -22209,7 +22217,7 @@
         <v>220</v>
       </c>
       <c r="AO221" s="123" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AP221" s="124"/>
       <c r="AQ221" s="124"/>
@@ -22225,25 +22233,25 @@
         <v>44</v>
       </c>
       <c r="D222" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E222" s="121" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F222" s="121" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G222" s="129" t="s">
         <v>589</v>
       </c>
       <c r="H222" s="128" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I222" s="43" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="J222" s="124" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K222" s="124"/>
       <c r="L222" s="124"/>
@@ -22254,7 +22262,7 @@
       <c r="Q222" s="124"/>
       <c r="R222" s="124"/>
       <c r="S222" s="124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T222" s="124"/>
       <c r="U222" s="124"/>
@@ -22298,23 +22306,23 @@
         <v>44</v>
       </c>
       <c r="D223" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E223" s="121" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F223" s="121" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G223" s="121" t="s">
         <v>539</v>
       </c>
       <c r="H223" s="128"/>
       <c r="I223" s="43" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J223" s="124" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K223" s="124"/>
       <c r="L223" s="124"/>
@@ -22325,7 +22333,7 @@
       <c r="Q223" s="124"/>
       <c r="R223" s="124"/>
       <c r="S223" s="124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T223" s="124"/>
       <c r="U223" s="124"/>
@@ -22353,7 +22361,7 @@
         <v>222</v>
       </c>
       <c r="AO223" s="123" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AP223" s="124"/>
       <c r="AQ223" s="124"/>
@@ -22369,25 +22377,25 @@
         <v>44</v>
       </c>
       <c r="D224" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E224" s="121" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F224" s="121" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G224" s="121" t="s">
         <v>605</v>
       </c>
       <c r="H224" s="128" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I224" s="43" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="J224" s="124" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K224" s="124"/>
       <c r="L224" s="124"/>
@@ -22398,7 +22406,7 @@
       <c r="Q224" s="124"/>
       <c r="R224" s="124"/>
       <c r="S224" s="124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T224" s="124"/>
       <c r="U224" s="124"/>
@@ -22442,36 +22450,36 @@
         <v>44</v>
       </c>
       <c r="D225" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E225" s="121" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F225" s="121" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G225" s="121" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H225" s="122"/>
       <c r="I225" s="36" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J225" s="123" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K225" s="124"/>
       <c r="L225" s="124"/>
       <c r="M225" s="123"/>
       <c r="N225" s="123"/>
       <c r="O225" s="124" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="P225" s="124"/>
       <c r="Q225" s="124"/>
       <c r="R225" s="124"/>
       <c r="S225" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T225" s="124"/>
       <c r="U225" s="124"/>
@@ -22479,7 +22487,7 @@
       <c r="W225" s="124"/>
       <c r="X225" s="124"/>
       <c r="Y225" s="123" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Z225" s="124"/>
       <c r="AA225" s="124"/>
@@ -22515,23 +22523,23 @@
         <v>44</v>
       </c>
       <c r="D226" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E226" s="121" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F226" s="121" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G226" s="121" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H226" s="122"/>
       <c r="I226" s="36" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J226" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K226" s="124"/>
       <c r="L226" s="124"/>
@@ -22544,7 +22552,7 @@
       <c r="Q226" s="124"/>
       <c r="R226" s="124"/>
       <c r="S226" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T226" s="124"/>
       <c r="U226" s="124"/>
@@ -22552,7 +22560,7 @@
       <c r="W226" s="124"/>
       <c r="X226" s="124"/>
       <c r="Y226" s="123" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z226" s="124"/>
       <c r="AA226" s="124"/>
@@ -22588,36 +22596,36 @@
         <v>44</v>
       </c>
       <c r="D227" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E227" s="121" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F227" s="121" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G227" s="121" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H227" s="122"/>
       <c r="I227" s="36" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J227" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K227" s="124"/>
       <c r="L227" s="124"/>
       <c r="M227" s="123"/>
       <c r="N227" s="123"/>
       <c r="O227" s="124" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P227" s="124"/>
       <c r="Q227" s="124"/>
       <c r="R227" s="124"/>
       <c r="S227" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T227" s="124"/>
       <c r="U227" s="124"/>
@@ -22625,7 +22633,7 @@
       <c r="W227" s="124"/>
       <c r="X227" s="124"/>
       <c r="Y227" s="123" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z227" s="124"/>
       <c r="AA227" s="124"/>
@@ -22661,38 +22669,38 @@
         <v>44</v>
       </c>
       <c r="D228" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E228" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F228" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G228" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H228" s="122" t="s">
         <v>382</v>
       </c>
       <c r="I228" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J228" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K228" s="124"/>
       <c r="L228" s="124"/>
       <c r="M228" s="123"/>
       <c r="N228" s="123"/>
       <c r="O228" s="123" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P228" s="124"/>
       <c r="Q228" s="124"/>
       <c r="R228" s="124"/>
       <c r="S228" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T228" s="124"/>
       <c r="U228" s="124"/>
@@ -22700,7 +22708,7 @@
       <c r="W228" s="124"/>
       <c r="X228" s="124"/>
       <c r="Y228" s="123" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Z228" s="124"/>
       <c r="AA228" s="124"/>
@@ -22738,38 +22746,38 @@
         <v>44</v>
       </c>
       <c r="D229" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E229" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F229" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G229" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H229" s="122" t="s">
         <v>409</v>
       </c>
       <c r="I229" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J229" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K229" s="124"/>
       <c r="L229" s="124"/>
       <c r="M229" s="123"/>
       <c r="N229" s="123"/>
       <c r="O229" s="123" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P229" s="124"/>
       <c r="Q229" s="124"/>
       <c r="R229" s="124"/>
       <c r="S229" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T229" s="124"/>
       <c r="U229" s="124"/>
@@ -22777,7 +22785,7 @@
       <c r="W229" s="124"/>
       <c r="X229" s="124"/>
       <c r="Y229" s="123" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Z229" s="124"/>
       <c r="AA229" s="124"/>
@@ -22815,38 +22823,38 @@
         <v>44</v>
       </c>
       <c r="D230" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E230" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F230" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G230" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H230" s="122" t="s">
         <v>440</v>
       </c>
       <c r="I230" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J230" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K230" s="124"/>
       <c r="L230" s="124"/>
       <c r="M230" s="123"/>
       <c r="N230" s="123"/>
       <c r="O230" s="123" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P230" s="124"/>
       <c r="Q230" s="124"/>
       <c r="R230" s="124"/>
       <c r="S230" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T230" s="124"/>
       <c r="U230" s="124"/>
@@ -22854,7 +22862,7 @@
       <c r="W230" s="124"/>
       <c r="X230" s="124"/>
       <c r="Y230" s="123" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Z230" s="124"/>
       <c r="AA230" s="124"/>
@@ -22892,38 +22900,38 @@
         <v>44</v>
       </c>
       <c r="D231" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E231" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F231" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G231" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H231" s="122" t="s">
         <v>458</v>
       </c>
       <c r="I231" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J231" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K231" s="124"/>
       <c r="L231" s="124"/>
       <c r="M231" s="123"/>
       <c r="N231" s="123"/>
       <c r="O231" s="123" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P231" s="124"/>
       <c r="Q231" s="124"/>
       <c r="R231" s="124"/>
       <c r="S231" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T231" s="124"/>
       <c r="U231" s="124"/>
@@ -22931,7 +22939,7 @@
       <c r="W231" s="124"/>
       <c r="X231" s="124"/>
       <c r="Y231" s="131" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Z231" s="124"/>
       <c r="AA231" s="124"/>
@@ -22969,38 +22977,38 @@
         <v>44</v>
       </c>
       <c r="D232" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E232" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F232" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G232" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H232" s="122" t="s">
         <v>476</v>
       </c>
       <c r="I232" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J232" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K232" s="124"/>
       <c r="L232" s="124"/>
       <c r="M232" s="123"/>
       <c r="N232" s="123"/>
       <c r="O232" s="123" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P232" s="124"/>
       <c r="Q232" s="124"/>
       <c r="R232" s="124"/>
       <c r="S232" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T232" s="124"/>
       <c r="U232" s="124"/>
@@ -23008,7 +23016,7 @@
       <c r="W232" s="124"/>
       <c r="X232" s="124"/>
       <c r="Y232" s="123" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z232" s="124"/>
       <c r="AA232" s="124"/>
@@ -23046,38 +23054,38 @@
         <v>44</v>
       </c>
       <c r="D233" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E233" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F233" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G233" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H233" s="122" t="s">
         <v>488</v>
       </c>
       <c r="I233" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J233" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K233" s="124"/>
       <c r="L233" s="124"/>
       <c r="M233" s="123"/>
       <c r="N233" s="123"/>
       <c r="O233" s="123" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P233" s="124"/>
       <c r="Q233" s="124"/>
       <c r="R233" s="124"/>
       <c r="S233" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T233" s="124"/>
       <c r="U233" s="124"/>
@@ -23085,7 +23093,7 @@
       <c r="W233" s="124"/>
       <c r="X233" s="124"/>
       <c r="Y233" s="123" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Z233" s="124"/>
       <c r="AA233" s="124"/>
@@ -23123,38 +23131,38 @@
         <v>44</v>
       </c>
       <c r="D234" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E234" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F234" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G234" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H234" s="122" t="s">
         <v>499</v>
       </c>
       <c r="I234" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J234" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K234" s="124"/>
       <c r="L234" s="124"/>
       <c r="M234" s="123"/>
       <c r="N234" s="123"/>
       <c r="O234" s="123" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P234" s="124"/>
       <c r="Q234" s="124"/>
       <c r="R234" s="124"/>
       <c r="S234" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T234" s="124"/>
       <c r="U234" s="124"/>
@@ -23162,7 +23170,7 @@
       <c r="W234" s="124"/>
       <c r="X234" s="124"/>
       <c r="Y234" s="123" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Z234" s="124"/>
       <c r="AA234" s="124"/>
@@ -23276,10 +23284,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="134" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1" s="134" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="I1" s="134" t="s">
         <v>34</v>
@@ -23288,7 +23296,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="134" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L1" s="134" t="s">
         <v>35</v>
@@ -23299,7 +23307,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="135" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/Supermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Supermarket PoS 2018.xlsx
@@ -43,6 +43,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3211,30 +3212,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AQ65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O66" activeCellId="0" sqref="O66"/>
+      <selection pane="bottomLeft" activeCell="N242" activeCellId="0" sqref="N242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.6113360323887"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.587044534413"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.6315789473684"/>
-    <col collapsed="false" hidden="false" max="34" min="16" style="0" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="34" min="16" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="82.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,7 +3369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="58.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="n">
         <v>1</v>
       </c>
@@ -3439,7 +3440,7 @@
       <c r="AP2" s="26"/>
       <c r="AQ2" s="16"/>
     </row>
-    <row r="3" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="n">
         <v>2</v>
       </c>
@@ -3526,7 +3527,7 @@
       </c>
       <c r="AQ3" s="16"/>
     </row>
-    <row r="4" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="n">
         <v>3</v>
       </c>
@@ -3613,7 +3614,7 @@
       </c>
       <c r="AQ4" s="16"/>
     </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="n">
         <v>4</v>
       </c>
@@ -3700,7 +3701,7 @@
       </c>
       <c r="AQ5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="n">
         <v>5</v>
       </c>
@@ -3787,7 +3788,7 @@
       </c>
       <c r="AQ6" s="16"/>
     </row>
-    <row r="7" customFormat="false" ht="166.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="166.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="n">
         <v>6</v>
       </c>
@@ -3874,7 +3875,7 @@
       </c>
       <c r="AQ7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="n">
         <v>7</v>
       </c>
@@ -3961,7 +3962,7 @@
       </c>
       <c r="AQ8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="n">
         <v>8</v>
       </c>
@@ -4048,7 +4049,7 @@
       </c>
       <c r="AQ9" s="40"/>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="n">
         <v>9</v>
       </c>
@@ -4135,7 +4136,7 @@
       </c>
       <c r="AQ10" s="40"/>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="n">
         <v>10</v>
       </c>
@@ -4222,7 +4223,7 @@
       </c>
       <c r="AQ11" s="40"/>
     </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="n">
         <v>11</v>
       </c>
@@ -4309,7 +4310,7 @@
       </c>
       <c r="AQ12" s="40"/>
     </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="n">
         <v>12</v>
       </c>
@@ -4396,7 +4397,7 @@
       </c>
       <c r="AQ13" s="40"/>
     </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="n">
         <v>13</v>
       </c>
@@ -4483,7 +4484,7 @@
       </c>
       <c r="AQ14" s="40"/>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="n">
         <v>14</v>
       </c>
@@ -4570,7 +4571,7 @@
       </c>
       <c r="AQ15" s="40"/>
     </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="n">
         <v>15</v>
       </c>
@@ -4657,7 +4658,7 @@
       </c>
       <c r="AQ16" s="40"/>
     </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
         <v>16</v>
       </c>
@@ -4744,7 +4745,7 @@
       </c>
       <c r="AQ17" s="40"/>
     </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="n">
         <v>17</v>
       </c>
@@ -4831,7 +4832,7 @@
       </c>
       <c r="AQ18" s="40"/>
     </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="n">
         <v>18</v>
       </c>
@@ -4918,7 +4919,7 @@
       </c>
       <c r="AQ19" s="40"/>
     </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="n">
         <v>19</v>
       </c>
@@ -5005,7 +5006,7 @@
       </c>
       <c r="AQ20" s="40"/>
     </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="n">
         <v>20</v>
       </c>
@@ -5092,7 +5093,7 @@
       </c>
       <c r="AQ21" s="40"/>
     </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="n">
         <v>21</v>
       </c>
@@ -5179,7 +5180,7 @@
       </c>
       <c r="AQ22" s="40"/>
     </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="n">
         <v>22</v>
       </c>
@@ -5266,7 +5267,7 @@
       </c>
       <c r="AQ23" s="40"/>
     </row>
-    <row r="24" customFormat="false" ht="52.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="n">
         <v>23</v>
       </c>
@@ -5353,7 +5354,7 @@
       </c>
       <c r="AQ24" s="40"/>
     </row>
-    <row r="25" customFormat="false" ht="52.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="n">
         <v>24</v>
       </c>
@@ -5440,7 +5441,7 @@
       </c>
       <c r="AQ25" s="40"/>
     </row>
-    <row r="26" customFormat="false" ht="52.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="n">
         <v>25</v>
       </c>
@@ -5527,7 +5528,7 @@
       </c>
       <c r="AQ26" s="40"/>
     </row>
-    <row r="27" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="n">
         <v>26</v>
       </c>
@@ -5614,7 +5615,7 @@
       </c>
       <c r="AQ27" s="40"/>
     </row>
-    <row r="28" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="n">
         <v>27</v>
       </c>
@@ -5701,7 +5702,7 @@
       </c>
       <c r="AQ28" s="40"/>
     </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="n">
         <v>28</v>
       </c>
@@ -5788,7 +5789,7 @@
       </c>
       <c r="AQ29" s="40"/>
     </row>
-    <row r="30" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="n">
         <v>29</v>
       </c>
@@ -5875,7 +5876,7 @@
       </c>
       <c r="AQ30" s="40"/>
     </row>
-    <row r="31" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="n">
         <v>30</v>
       </c>
@@ -5962,7 +5963,7 @@
       </c>
       <c r="AQ31" s="40"/>
     </row>
-    <row r="32" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="n">
         <v>31</v>
       </c>
@@ -6049,7 +6050,7 @@
       </c>
       <c r="AQ32" s="40"/>
     </row>
-    <row r="33" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="27" t="n">
         <v>32</v>
       </c>
@@ -6136,7 +6137,7 @@
       </c>
       <c r="AQ33" s="40"/>
     </row>
-    <row r="34" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="n">
         <v>33</v>
       </c>
@@ -6223,7 +6224,7 @@
       </c>
       <c r="AQ34" s="40"/>
     </row>
-    <row r="35" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="n">
         <v>34</v>
       </c>
@@ -6310,7 +6311,7 @@
       </c>
       <c r="AQ35" s="40"/>
     </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="n">
         <v>35</v>
       </c>
@@ -6397,7 +6398,7 @@
       </c>
       <c r="AQ36" s="40"/>
     </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="n">
         <v>36</v>
       </c>
@@ -6484,7 +6485,7 @@
       </c>
       <c r="AQ37" s="40"/>
     </row>
-    <row r="38" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17" t="n">
         <v>37</v>
       </c>
@@ -6571,7 +6572,7 @@
       </c>
       <c r="AQ38" s="40"/>
     </row>
-    <row r="39" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="27" t="n">
         <v>38</v>
       </c>
@@ -6658,7 +6659,7 @@
       </c>
       <c r="AQ39" s="40"/>
     </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="n">
         <v>39</v>
       </c>
@@ -6745,7 +6746,7 @@
       </c>
       <c r="AQ40" s="40"/>
     </row>
-    <row r="41" customFormat="false" ht="50.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="27" t="n">
         <v>40</v>
       </c>
@@ -6816,7 +6817,7 @@
       <c r="AP41" s="26"/>
       <c r="AQ41" s="16"/>
     </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17" t="n">
         <v>41</v>
       </c>
@@ -6903,7 +6904,7 @@
       </c>
       <c r="AQ42" s="40"/>
     </row>
-    <row r="43" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="27" t="n">
         <v>42</v>
       </c>
@@ -6990,7 +6991,7 @@
       </c>
       <c r="AQ43" s="40"/>
     </row>
-    <row r="44" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="17" t="n">
         <v>43</v>
       </c>
@@ -7077,7 +7078,7 @@
       </c>
       <c r="AQ44" s="40"/>
     </row>
-    <row r="45" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="27" t="n">
         <v>44</v>
       </c>
@@ -7164,7 +7165,7 @@
       </c>
       <c r="AQ45" s="40"/>
     </row>
-    <row r="46" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="17" t="n">
         <v>45</v>
       </c>
@@ -7251,7 +7252,7 @@
       </c>
       <c r="AQ46" s="40"/>
     </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="27" t="n">
         <v>46</v>
       </c>
@@ -7338,7 +7339,7 @@
       </c>
       <c r="AQ47" s="40"/>
     </row>
-    <row r="48" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="17" t="n">
         <v>47</v>
       </c>
@@ -7425,7 +7426,7 @@
       </c>
       <c r="AQ48" s="40"/>
     </row>
-    <row r="49" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="27" t="n">
         <v>48</v>
       </c>
@@ -7512,7 +7513,7 @@
       </c>
       <c r="AQ49" s="40"/>
     </row>
-    <row r="50" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="17" t="n">
         <v>49</v>
       </c>
@@ -7583,7 +7584,7 @@
       <c r="AP50" s="53"/>
       <c r="AQ50" s="40"/>
     </row>
-    <row r="51" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="27" t="n">
         <v>50</v>
       </c>
@@ -7670,7 +7671,7 @@
       </c>
       <c r="AQ51" s="40"/>
     </row>
-    <row r="52" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="17" t="n">
         <v>51</v>
       </c>
@@ -7757,7 +7758,7 @@
       </c>
       <c r="AQ52" s="40"/>
     </row>
-    <row r="53" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="27" t="n">
         <v>52</v>
       </c>
@@ -7844,7 +7845,7 @@
       </c>
       <c r="AQ53" s="40"/>
     </row>
-    <row r="54" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="n">
         <v>53</v>
       </c>
@@ -7931,7 +7932,7 @@
       </c>
       <c r="AQ54" s="40"/>
     </row>
-    <row r="55" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="27" t="n">
         <v>54</v>
       </c>
@@ -8018,7 +8019,7 @@
       </c>
       <c r="AQ55" s="40"/>
     </row>
-    <row r="56" customFormat="false" ht="26.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="n">
         <v>55</v>
       </c>
@@ -8105,7 +8106,7 @@
       </c>
       <c r="AQ56" s="40"/>
     </row>
-    <row r="57" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="27" t="n">
         <v>56</v>
       </c>
@@ -8176,7 +8177,7 @@
       <c r="AP57" s="53"/>
       <c r="AQ57" s="40"/>
     </row>
-    <row r="58" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17" t="n">
         <v>57</v>
       </c>
@@ -8263,7 +8264,7 @@
       </c>
       <c r="AQ58" s="40"/>
     </row>
-    <row r="59" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="27" t="n">
         <v>58</v>
       </c>
@@ -8350,7 +8351,7 @@
       </c>
       <c r="AQ59" s="40"/>
     </row>
-    <row r="60" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="17" t="n">
         <v>59</v>
       </c>
@@ -8437,7 +8438,7 @@
       </c>
       <c r="AQ60" s="40"/>
     </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="27" t="n">
         <v>60</v>
       </c>
@@ -8524,7 +8525,7 @@
       </c>
       <c r="AQ61" s="40"/>
     </row>
-    <row r="62" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="17" t="n">
         <v>61</v>
       </c>
@@ -8611,7 +8612,7 @@
       </c>
       <c r="AQ62" s="40"/>
     </row>
-    <row r="63" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="27" t="n">
         <v>62</v>
       </c>
@@ -8698,7 +8699,7 @@
       </c>
       <c r="AQ63" s="40"/>
     </row>
-    <row r="64" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="17" t="n">
         <v>63</v>
       </c>
@@ -8785,7 +8786,7 @@
       </c>
       <c r="AQ64" s="40"/>
     </row>
-    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="27" t="n">
         <v>64</v>
       </c>
@@ -8959,7 +8960,7 @@
       </c>
       <c r="AQ66" s="40"/>
     </row>
-    <row r="67" customFormat="false" ht="60" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="27" t="n">
         <v>66</v>
       </c>
@@ -9030,7 +9031,7 @@
       <c r="AP67" s="53"/>
       <c r="AQ67" s="40"/>
     </row>
-    <row r="68" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="17" t="n">
         <v>67</v>
       </c>
@@ -9117,7 +9118,7 @@
       </c>
       <c r="AQ68" s="40"/>
     </row>
-    <row r="69" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="27" t="n">
         <v>68</v>
       </c>
@@ -9204,7 +9205,7 @@
       </c>
       <c r="AQ69" s="40"/>
     </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="17" t="n">
         <v>69</v>
       </c>
@@ -9291,7 +9292,7 @@
       </c>
       <c r="AQ70" s="40"/>
     </row>
-    <row r="71" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="27" t="n">
         <v>70</v>
       </c>
@@ -9378,7 +9379,7 @@
       </c>
       <c r="AQ71" s="40"/>
     </row>
-    <row r="72" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="17" t="n">
         <v>71</v>
       </c>
@@ -9465,7 +9466,7 @@
       </c>
       <c r="AQ72" s="40"/>
     </row>
-    <row r="73" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="27" t="n">
         <v>72</v>
       </c>
@@ -9552,7 +9553,7 @@
       </c>
       <c r="AQ73" s="40"/>
     </row>
-    <row r="74" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="17" t="n">
         <v>73</v>
       </c>
@@ -9639,7 +9640,7 @@
       </c>
       <c r="AQ74" s="40"/>
     </row>
-    <row r="75" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="27" t="n">
         <v>74</v>
       </c>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="AQ75" s="40"/>
     </row>
-    <row r="76" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="17" t="n">
         <v>75</v>
       </c>
@@ -9813,7 +9814,7 @@
       </c>
       <c r="AQ76" s="40"/>
     </row>
-    <row r="77" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="27" t="n">
         <v>76</v>
       </c>
@@ -9900,7 +9901,7 @@
       </c>
       <c r="AQ77" s="40"/>
     </row>
-    <row r="78" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="17" t="n">
         <v>77</v>
       </c>
@@ -9987,7 +9988,7 @@
       </c>
       <c r="AQ78" s="40"/>
     </row>
-    <row r="79" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="27" t="n">
         <v>78</v>
       </c>
@@ -10074,7 +10075,7 @@
       </c>
       <c r="AQ79" s="40"/>
     </row>
-    <row r="80" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="17" t="n">
         <v>79</v>
       </c>
@@ -10161,7 +10162,7 @@
       </c>
       <c r="AQ80" s="40"/>
     </row>
-    <row r="81" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="27" t="n">
         <v>80</v>
       </c>
@@ -10248,7 +10249,7 @@
       </c>
       <c r="AQ81" s="40"/>
     </row>
-    <row r="82" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="17" t="n">
         <v>81</v>
       </c>
@@ -10335,7 +10336,7 @@
       </c>
       <c r="AQ82" s="40"/>
     </row>
-    <row r="83" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="27" t="n">
         <v>82</v>
       </c>
@@ -10422,7 +10423,7 @@
       </c>
       <c r="AQ83" s="40"/>
     </row>
-    <row r="84" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="17" t="n">
         <v>83</v>
       </c>
@@ -10509,7 +10510,7 @@
       </c>
       <c r="AQ84" s="40"/>
     </row>
-    <row r="85" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="27" t="n">
         <v>84</v>
       </c>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="AQ85" s="40"/>
     </row>
-    <row r="86" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="17" t="n">
         <v>85</v>
       </c>
@@ -10683,7 +10684,7 @@
       </c>
       <c r="AQ86" s="40"/>
     </row>
-    <row r="87" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="27" t="n">
         <v>86</v>
       </c>
@@ -10770,7 +10771,7 @@
       </c>
       <c r="AQ87" s="40"/>
     </row>
-    <row r="88" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="17" t="n">
         <v>87</v>
       </c>
@@ -10857,7 +10858,7 @@
       </c>
       <c r="AQ88" s="40"/>
     </row>
-    <row r="89" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="27" t="n">
         <v>88</v>
       </c>
@@ -10944,7 +10945,7 @@
       </c>
       <c r="AQ89" s="40"/>
     </row>
-    <row r="90" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="17" t="n">
         <v>89</v>
       </c>
@@ -11031,7 +11032,7 @@
       </c>
       <c r="AQ90" s="40"/>
     </row>
-    <row r="91" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="27" t="n">
         <v>90</v>
       </c>
@@ -11118,7 +11119,7 @@
       </c>
       <c r="AQ91" s="40"/>
     </row>
-    <row r="92" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="17" t="n">
         <v>91</v>
       </c>
@@ -11205,7 +11206,7 @@
       </c>
       <c r="AQ92" s="40"/>
     </row>
-    <row r="93" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="27" t="n">
         <v>92</v>
       </c>
@@ -11292,7 +11293,7 @@
       </c>
       <c r="AQ93" s="40"/>
     </row>
-    <row r="94" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="17" t="n">
         <v>93</v>
       </c>
@@ -11379,7 +11380,7 @@
       </c>
       <c r="AQ94" s="40"/>
     </row>
-    <row r="95" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="27" t="n">
         <v>94</v>
       </c>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="AQ95" s="40"/>
     </row>
-    <row r="96" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="17" t="n">
         <v>95</v>
       </c>
@@ -11553,7 +11554,7 @@
       </c>
       <c r="AQ96" s="40"/>
     </row>
-    <row r="97" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="27" t="n">
         <v>96</v>
       </c>
@@ -11640,7 +11641,7 @@
       </c>
       <c r="AQ97" s="40"/>
     </row>
-    <row r="98" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="17" t="n">
         <v>97</v>
       </c>
@@ -11727,7 +11728,7 @@
       </c>
       <c r="AQ98" s="40"/>
     </row>
-    <row r="99" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="27" t="n">
         <v>98</v>
       </c>
@@ -11814,7 +11815,7 @@
       </c>
       <c r="AQ99" s="40"/>
     </row>
-    <row r="100" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="17" t="n">
         <v>99</v>
       </c>
@@ -11901,7 +11902,7 @@
       </c>
       <c r="AQ100" s="40"/>
     </row>
-    <row r="101" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="27" t="n">
         <v>100</v>
       </c>
@@ -11988,7 +11989,7 @@
       </c>
       <c r="AQ101" s="40"/>
     </row>
-    <row r="102" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="17" t="n">
         <v>101</v>
       </c>
@@ -12075,7 +12076,7 @@
       </c>
       <c r="AQ102" s="40"/>
     </row>
-    <row r="103" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="27" t="n">
         <v>102</v>
       </c>
@@ -12162,7 +12163,7 @@
       </c>
       <c r="AQ103" s="40"/>
     </row>
-    <row r="104" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="17" t="n">
         <v>103</v>
       </c>
@@ -12249,7 +12250,7 @@
       </c>
       <c r="AQ104" s="40"/>
     </row>
-    <row r="105" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="27" t="n">
         <v>104</v>
       </c>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="AQ105" s="40"/>
     </row>
-    <row r="106" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="17" t="n">
         <v>105</v>
       </c>
@@ -12423,7 +12424,7 @@
       </c>
       <c r="AQ106" s="40"/>
     </row>
-    <row r="107" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="27" t="n">
         <v>106</v>
       </c>
@@ -12510,7 +12511,7 @@
       </c>
       <c r="AQ107" s="40"/>
     </row>
-    <row r="108" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="17" t="n">
         <v>107</v>
       </c>
@@ -12597,7 +12598,7 @@
       </c>
       <c r="AQ108" s="40"/>
     </row>
-    <row r="109" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="27" t="n">
         <v>108</v>
       </c>
@@ -12684,7 +12685,7 @@
       </c>
       <c r="AQ109" s="40"/>
     </row>
-    <row r="110" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="17" t="n">
         <v>109</v>
       </c>
@@ -12771,7 +12772,7 @@
       </c>
       <c r="AQ110" s="40"/>
     </row>
-    <row r="111" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="27" t="n">
         <v>110</v>
       </c>
@@ -12858,7 +12859,7 @@
       </c>
       <c r="AQ111" s="40"/>
     </row>
-    <row r="112" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="17" t="n">
         <v>111</v>
       </c>
@@ -12945,7 +12946,7 @@
       </c>
       <c r="AQ112" s="40"/>
     </row>
-    <row r="113" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="27" t="n">
         <v>112</v>
       </c>
@@ -13032,7 +13033,7 @@
       </c>
       <c r="AQ113" s="40"/>
     </row>
-    <row r="114" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="17" t="n">
         <v>113</v>
       </c>
@@ -13119,7 +13120,7 @@
       </c>
       <c r="AQ114" s="40"/>
     </row>
-    <row r="115" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="27" t="n">
         <v>114</v>
       </c>
@@ -13206,7 +13207,7 @@
       </c>
       <c r="AQ115" s="40"/>
     </row>
-    <row r="116" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="17" t="n">
         <v>115</v>
       </c>
@@ -13293,7 +13294,7 @@
       </c>
       <c r="AQ116" s="40"/>
     </row>
-    <row r="117" customFormat="false" ht="41.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="27" t="n">
         <v>116</v>
       </c>
@@ -13380,7 +13381,7 @@
       </c>
       <c r="AQ117" s="40"/>
     </row>
-    <row r="118" customFormat="false" ht="41.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="17" t="n">
         <v>117</v>
       </c>
@@ -13467,7 +13468,7 @@
       </c>
       <c r="AQ118" s="40"/>
     </row>
-    <row r="119" customFormat="false" ht="41.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="27" t="n">
         <v>118</v>
       </c>
@@ -13554,7 +13555,7 @@
       </c>
       <c r="AQ119" s="40"/>
     </row>
-    <row r="120" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="17" t="n">
         <v>119</v>
       </c>
@@ -13637,7 +13638,7 @@
       <c r="AP120" s="63"/>
       <c r="AQ120" s="14"/>
     </row>
-    <row r="121" customFormat="false" ht="100.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="27" t="n">
         <v>120</v>
       </c>
@@ -13720,7 +13721,7 @@
       </c>
       <c r="AQ121" s="14"/>
     </row>
-    <row r="122" customFormat="false" ht="142.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="17" t="n">
         <v>121</v>
       </c>
@@ -13807,7 +13808,7 @@
       </c>
       <c r="AQ122" s="14"/>
     </row>
-    <row r="123" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="27" t="n">
         <v>122</v>
       </c>
@@ -13894,7 +13895,7 @@
       </c>
       <c r="AQ123" s="14"/>
     </row>
-    <row r="124" customFormat="false" ht="168.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="168.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="17" t="n">
         <v>123</v>
       </c>
@@ -13981,7 +13982,7 @@
       </c>
       <c r="AQ124" s="14"/>
     </row>
-    <row r="125" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="27" t="n">
         <v>124</v>
       </c>
@@ -14068,7 +14069,7 @@
       </c>
       <c r="AQ125" s="14"/>
     </row>
-    <row r="126" customFormat="false" ht="168.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="168.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17" t="n">
         <v>125</v>
       </c>
@@ -14155,7 +14156,7 @@
       </c>
       <c r="AQ126" s="14"/>
     </row>
-    <row r="127" customFormat="false" ht="86.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="27" t="n">
         <v>126</v>
       </c>
@@ -14242,7 +14243,7 @@
       </c>
       <c r="AQ127" s="14"/>
     </row>
-    <row r="128" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="17" t="n">
         <v>127</v>
       </c>
@@ -14329,7 +14330,7 @@
       </c>
       <c r="AQ128" s="14"/>
     </row>
-    <row r="129" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="27" t="n">
         <v>128</v>
       </c>
@@ -14412,7 +14413,7 @@
       <c r="AP129" s="63"/>
       <c r="AQ129" s="14"/>
     </row>
-    <row r="130" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="17" t="n">
         <v>129</v>
       </c>
@@ -14495,7 +14496,7 @@
       </c>
       <c r="AQ130" s="14"/>
     </row>
-    <row r="131" customFormat="false" ht="69" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="27" t="n">
         <v>130</v>
       </c>
@@ -14582,7 +14583,7 @@
       </c>
       <c r="AQ131" s="14"/>
     </row>
-    <row r="132" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="17" t="n">
         <v>131</v>
       </c>
@@ -14665,7 +14666,7 @@
       <c r="AP132" s="63"/>
       <c r="AQ132" s="40"/>
     </row>
-    <row r="133" customFormat="false" ht="72.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="27" t="n">
         <v>132</v>
       </c>
@@ -14748,7 +14749,7 @@
       </c>
       <c r="AQ133" s="40"/>
     </row>
-    <row r="134" customFormat="false" ht="128.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="128.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17" t="n">
         <v>133</v>
       </c>
@@ -14835,7 +14836,7 @@
       </c>
       <c r="AQ134" s="40"/>
     </row>
-    <row r="135" customFormat="false" ht="145.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="145.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="27" t="n">
         <v>134</v>
       </c>
@@ -14922,7 +14923,7 @@
       </c>
       <c r="AQ135" s="40"/>
     </row>
-    <row r="136" customFormat="false" ht="48.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17" t="n">
         <v>135</v>
       </c>
@@ -15009,7 +15010,7 @@
       </c>
       <c r="AQ136" s="40"/>
     </row>
-    <row r="137" customFormat="false" ht="202.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="202.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="27" t="n">
         <v>136</v>
       </c>
@@ -15096,7 +15097,7 @@
       </c>
       <c r="AQ137" s="40"/>
     </row>
-    <row r="138" customFormat="false" ht="111.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17" t="n">
         <v>137</v>
       </c>
@@ -15183,7 +15184,7 @@
       </c>
       <c r="AQ138" s="40"/>
     </row>
-    <row r="139" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="27" t="n">
         <v>138</v>
       </c>
@@ -15266,7 +15267,7 @@
       <c r="AP139" s="63"/>
       <c r="AQ139" s="14"/>
     </row>
-    <row r="140" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="17" t="n">
         <v>139</v>
       </c>
@@ -15349,7 +15350,7 @@
       </c>
       <c r="AQ140" s="14"/>
     </row>
-    <row r="141" customFormat="false" ht="138" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="27" t="n">
         <v>140</v>
       </c>
@@ -15436,7 +15437,7 @@
       </c>
       <c r="AQ141" s="14"/>
     </row>
-    <row r="142" customFormat="false" ht="132" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="132" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17" t="n">
         <v>141</v>
       </c>
@@ -15523,7 +15524,7 @@
       </c>
       <c r="AQ142" s="14"/>
     </row>
-    <row r="143" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="27" t="n">
         <v>142</v>
       </c>
@@ -15606,7 +15607,7 @@
       <c r="AP143" s="14"/>
       <c r="AQ143" s="14"/>
     </row>
-    <row r="144" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="17" t="n">
         <v>143</v>
       </c>
@@ -15687,7 +15688,7 @@
       <c r="AP144" s="14"/>
       <c r="AQ144" s="14"/>
     </row>
-    <row r="145" customFormat="false" ht="81.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="27" t="n">
         <v>144</v>
       </c>
@@ -15776,7 +15777,7 @@
       </c>
       <c r="AQ145" s="14"/>
     </row>
-    <row r="146" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="17" t="n">
         <v>145</v>
       </c>
@@ -15861,7 +15862,7 @@
       </c>
       <c r="AQ146" s="14"/>
     </row>
-    <row r="147" customFormat="false" ht="89.55" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="27" t="n">
         <v>146</v>
       </c>
@@ -15950,7 +15951,7 @@
       </c>
       <c r="AQ147" s="14"/>
     </row>
-    <row r="148" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="17" t="n">
         <v>147</v>
       </c>
@@ -16037,7 +16038,7 @@
       </c>
       <c r="AQ148" s="14"/>
     </row>
-    <row r="149" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="27" t="n">
         <v>148</v>
       </c>
@@ -16124,7 +16125,7 @@
       </c>
       <c r="AQ149" s="14"/>
     </row>
-    <row r="150" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="17" t="n">
         <v>149</v>
       </c>
@@ -16211,7 +16212,7 @@
       </c>
       <c r="AQ150" s="14"/>
     </row>
-    <row r="151" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="27" t="n">
         <v>150</v>
       </c>
@@ -16298,7 +16299,7 @@
       </c>
       <c r="AQ151" s="14"/>
     </row>
-    <row r="152" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="17" t="n">
         <v>151</v>
       </c>
@@ -16379,7 +16380,7 @@
       <c r="AP152" s="14"/>
       <c r="AQ152" s="14"/>
     </row>
-    <row r="153" customFormat="false" ht="78" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="n">
         <v>152</v>
       </c>
@@ -16468,7 +16469,7 @@
       </c>
       <c r="AQ153" s="14"/>
     </row>
-    <row r="154" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="17" t="n">
         <v>153</v>
       </c>
@@ -16553,7 +16554,7 @@
       </c>
       <c r="AQ154" s="14"/>
     </row>
-    <row r="155" customFormat="false" ht="74.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="27" t="n">
         <v>154</v>
       </c>
@@ -16636,7 +16637,7 @@
       </c>
       <c r="AQ155" s="14"/>
     </row>
-    <row r="156" customFormat="false" ht="61.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17" t="n">
         <v>155</v>
       </c>
@@ -16723,7 +16724,7 @@
       </c>
       <c r="AQ156" s="14"/>
     </row>
-    <row r="157" customFormat="false" ht="69.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="27" t="n">
         <v>156</v>
       </c>
@@ -16810,7 +16811,7 @@
       </c>
       <c r="AQ157" s="14"/>
     </row>
-    <row r="158" customFormat="false" ht="58.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="17" t="n">
         <v>157</v>
       </c>
@@ -16897,7 +16898,7 @@
       </c>
       <c r="AQ158" s="14"/>
     </row>
-    <row r="159" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="27" t="n">
         <v>158</v>
       </c>
@@ -16984,7 +16985,7 @@
       </c>
       <c r="AQ159" s="14"/>
     </row>
-    <row r="160" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="17" t="n">
         <v>159</v>
       </c>
@@ -17071,7 +17072,7 @@
       </c>
       <c r="AQ160" s="14"/>
     </row>
-    <row r="161" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="27" t="n">
         <v>160</v>
       </c>
@@ -17158,7 +17159,7 @@
       </c>
       <c r="AQ161" s="14"/>
     </row>
-    <row r="162" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="17" t="n">
         <v>161</v>
       </c>
@@ -17245,7 +17246,7 @@
       </c>
       <c r="AQ162" s="14"/>
     </row>
-    <row r="163" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="27" t="n">
         <v>162</v>
       </c>
@@ -17326,7 +17327,7 @@
       <c r="AP163" s="14"/>
       <c r="AQ163" s="14"/>
     </row>
-    <row r="164" customFormat="false" ht="67.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="17" t="n">
         <v>163</v>
       </c>
@@ -17415,7 +17416,7 @@
       </c>
       <c r="AQ164" s="14"/>
     </row>
-    <row r="165" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="27" t="n">
         <v>164</v>
       </c>
@@ -17589,7 +17590,7 @@
       </c>
       <c r="AQ166" s="14"/>
     </row>
-    <row r="167" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="27" t="n">
         <v>166</v>
       </c>
@@ -17676,7 +17677,7 @@
       </c>
       <c r="AQ167" s="14"/>
     </row>
-    <row r="168" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="17" t="n">
         <v>167</v>
       </c>
@@ -17763,7 +17764,7 @@
       </c>
       <c r="AQ168" s="14"/>
     </row>
-    <row r="169" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="27" t="n">
         <v>168</v>
       </c>
@@ -17850,7 +17851,7 @@
       </c>
       <c r="AQ169" s="14"/>
     </row>
-    <row r="170" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="17" t="n">
         <v>169</v>
       </c>
@@ -17929,7 +17930,7 @@
       <c r="AP170" s="14"/>
       <c r="AQ170" s="14"/>
     </row>
-    <row r="171" customFormat="false" ht="75.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="27" t="n">
         <v>170</v>
       </c>
@@ -18016,7 +18017,7 @@
       </c>
       <c r="AQ171" s="14"/>
     </row>
-    <row r="172" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="17" t="n">
         <v>171</v>
       </c>
@@ -18099,7 +18100,7 @@
       </c>
       <c r="AQ172" s="14"/>
     </row>
-    <row r="173" customFormat="false" ht="82.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="27" t="n">
         <v>172</v>
       </c>
@@ -18180,7 +18181,7 @@
       </c>
       <c r="AQ173" s="14"/>
     </row>
-    <row r="174" customFormat="false" ht="106.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="17" t="n">
         <v>173</v>
       </c>
@@ -18265,7 +18266,7 @@
       </c>
       <c r="AQ174" s="14"/>
     </row>
-    <row r="175" customFormat="false" ht="48.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="27" t="n">
         <v>174</v>
       </c>
@@ -18350,7 +18351,7 @@
       </c>
       <c r="AQ175" s="14"/>
     </row>
-    <row r="176" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="17" t="n">
         <v>175</v>
       </c>
@@ -18429,7 +18430,7 @@
       <c r="AP176" s="14"/>
       <c r="AQ176" s="14"/>
     </row>
-    <row r="177" customFormat="false" ht="84.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="27" t="n">
         <v>176</v>
       </c>
@@ -18516,7 +18517,7 @@
       </c>
       <c r="AQ177" s="14"/>
     </row>
-    <row r="178" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="17" t="n">
         <v>177</v>
       </c>
@@ -18599,7 +18600,7 @@
       </c>
       <c r="AQ178" s="14"/>
     </row>
-    <row r="179" customFormat="false" ht="80.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="27" t="n">
         <v>178</v>
       </c>
@@ -18684,7 +18685,7 @@
       </c>
       <c r="AQ179" s="14"/>
     </row>
-    <row r="180" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="17" t="n">
         <v>179</v>
       </c>
@@ -18765,7 +18766,7 @@
       <c r="AP180" s="14"/>
       <c r="AQ180" s="14"/>
     </row>
-    <row r="181" customFormat="false" ht="74.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="27" t="n">
         <v>180</v>
       </c>
@@ -18854,7 +18855,7 @@
       </c>
       <c r="AQ181" s="14"/>
     </row>
-    <row r="182" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="17" t="n">
         <v>181</v>
       </c>
@@ -18939,7 +18940,7 @@
       </c>
       <c r="AQ182" s="14"/>
     </row>
-    <row r="183" customFormat="false" ht="60" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="27" t="n">
         <v>182</v>
       </c>
@@ -19028,7 +19029,7 @@
       </c>
       <c r="AQ183" s="14"/>
     </row>
-    <row r="184" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="17" t="n">
         <v>183</v>
       </c>
@@ -19107,7 +19108,7 @@
       <c r="AP184" s="14"/>
       <c r="AQ184" s="14"/>
     </row>
-    <row r="185" customFormat="false" ht="59.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="27" t="n">
         <v>184</v>
       </c>
@@ -19194,7 +19195,7 @@
       </c>
       <c r="AQ185" s="14"/>
     </row>
-    <row r="186" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="17" t="n">
         <v>185</v>
       </c>
@@ -19277,7 +19278,7 @@
       </c>
       <c r="AQ186" s="14"/>
     </row>
-    <row r="187" customFormat="false" ht="78.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="27" t="n">
         <v>186</v>
       </c>
@@ -19358,7 +19359,7 @@
       </c>
       <c r="AQ187" s="14"/>
     </row>
-    <row r="188" customFormat="false" ht="72.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="17" t="n">
         <v>187</v>
       </c>
@@ -19443,7 +19444,7 @@
       </c>
       <c r="AQ188" s="14"/>
     </row>
-    <row r="189" customFormat="false" ht="77.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="27" t="n">
         <v>188</v>
       </c>
@@ -19528,7 +19529,7 @@
       </c>
       <c r="AQ189" s="14"/>
     </row>
-    <row r="190" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="17" t="n">
         <v>189</v>
       </c>
@@ -19604,7 +19605,7 @@
       <c r="AP190" s="14"/>
       <c r="AQ190" s="14"/>
     </row>
-    <row r="191" customFormat="false" ht="62.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="27" t="n">
         <v>190</v>
       </c>
@@ -19689,7 +19690,7 @@
       </c>
       <c r="AQ191" s="14"/>
     </row>
-    <row r="192" customFormat="false" ht="64.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="17" t="n">
         <v>191</v>
       </c>
@@ -19772,7 +19773,7 @@
       </c>
       <c r="AQ192" s="14"/>
     </row>
-    <row r="193" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="27" t="n">
         <v>192</v>
       </c>
@@ -19857,7 +19858,7 @@
       </c>
       <c r="AQ193" s="14"/>
     </row>
-    <row r="194" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="17" t="n">
         <v>193</v>
       </c>
@@ -19946,7 +19947,7 @@
       </c>
       <c r="AQ194" s="14"/>
     </row>
-    <row r="195" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="27" t="n">
         <v>194</v>
       </c>
@@ -20035,7 +20036,7 @@
       </c>
       <c r="AQ195" s="14"/>
     </row>
-    <row r="196" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="17" t="n">
         <v>195</v>
       </c>
@@ -20122,7 +20123,7 @@
       </c>
       <c r="AQ196" s="14"/>
     </row>
-    <row r="197" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="27" t="n">
         <v>196</v>
       </c>
@@ -20209,7 +20210,7 @@
       </c>
       <c r="AQ197" s="14"/>
     </row>
-    <row r="198" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="17" t="n">
         <v>197</v>
       </c>
@@ -20296,7 +20297,7 @@
       </c>
       <c r="AQ198" s="14"/>
     </row>
-    <row r="199" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="27" t="n">
         <v>198</v>
       </c>
@@ -20383,7 +20384,7 @@
       </c>
       <c r="AQ199" s="14"/>
     </row>
-    <row r="200" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="17" t="n">
         <v>199</v>
       </c>
@@ -20470,7 +20471,7 @@
       </c>
       <c r="AQ200" s="14"/>
     </row>
-    <row r="201" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="27" t="n">
         <v>200</v>
       </c>
@@ -20557,7 +20558,7 @@
       </c>
       <c r="AQ201" s="14"/>
     </row>
-    <row r="202" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="17" t="n">
         <v>201</v>
       </c>
@@ -20644,7 +20645,7 @@
       </c>
       <c r="AQ202" s="14"/>
     </row>
-    <row r="203" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="27" t="n">
         <v>202</v>
       </c>
@@ -20731,7 +20732,7 @@
       </c>
       <c r="AQ203" s="14"/>
     </row>
-    <row r="204" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="17" t="n">
         <v>203</v>
       </c>
@@ -20818,7 +20819,7 @@
       </c>
       <c r="AQ204" s="14"/>
     </row>
-    <row r="205" customFormat="false" ht="54.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="27" t="n">
         <v>204</v>
       </c>
@@ -20905,7 +20906,7 @@
       </c>
       <c r="AQ205" s="14"/>
     </row>
-    <row r="206" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="17" t="n">
         <v>205</v>
       </c>
@@ -20992,7 +20993,7 @@
       </c>
       <c r="AQ206" s="14"/>
     </row>
-    <row r="207" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="27" t="n">
         <v>206</v>
       </c>
@@ -21079,7 +21080,7 @@
       </c>
       <c r="AQ207" s="14"/>
     </row>
-    <row r="208" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="17" t="n">
         <v>207</v>
       </c>
@@ -21166,7 +21167,7 @@
       </c>
       <c r="AQ208" s="14"/>
     </row>
-    <row r="209" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="27" t="n">
         <v>208</v>
       </c>
@@ -21253,7 +21254,7 @@
       </c>
       <c r="AQ209" s="14"/>
     </row>
-    <row r="210" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="17" t="n">
         <v>209</v>
       </c>
@@ -21340,7 +21341,7 @@
       </c>
       <c r="AQ210" s="14"/>
     </row>
-    <row r="211" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="27" t="n">
         <v>210</v>
       </c>
@@ -21427,7 +21428,7 @@
       </c>
       <c r="AQ211" s="14"/>
     </row>
-    <row r="212" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="17" t="n">
         <v>211</v>
       </c>
@@ -21510,7 +21511,7 @@
       </c>
       <c r="AQ212" s="14"/>
     </row>
-    <row r="213" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="27" t="n">
         <v>212</v>
       </c>
@@ -21589,7 +21590,7 @@
       </c>
       <c r="AQ213" s="14"/>
     </row>
-    <row r="214" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="17" t="n">
         <v>213</v>
       </c>
@@ -21670,7 +21671,7 @@
       </c>
       <c r="AQ214" s="14"/>
     </row>
-    <row r="215" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="27" t="n">
         <v>214</v>
       </c>
@@ -21751,7 +21752,7 @@
       </c>
       <c r="AQ215" s="14"/>
     </row>
-    <row r="216" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="17" t="n">
         <v>215</v>
       </c>
@@ -21832,7 +21833,7 @@
       </c>
       <c r="AQ216" s="14"/>
     </row>
-    <row r="217" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="27" t="n">
         <v>216</v>
       </c>
@@ -21913,7 +21914,7 @@
       </c>
       <c r="AQ217" s="40"/>
     </row>
-    <row r="218" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="17" t="n">
         <v>217</v>
       </c>
@@ -21996,7 +21997,7 @@
       </c>
       <c r="AQ218" s="14"/>
     </row>
-    <row r="219" customFormat="false" ht="94.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="27" t="n">
         <v>218</v>
       </c>
@@ -22085,7 +22086,7 @@
       </c>
       <c r="AQ219" s="14"/>
     </row>
-    <row r="220" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="27" t="n">
         <v>219</v>
       </c>
@@ -22156,7 +22157,7 @@
       <c r="AP220" s="125"/>
       <c r="AQ220" s="125"/>
     </row>
-    <row r="221" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="27" t="n">
         <v>220</v>
       </c>
@@ -22227,7 +22228,7 @@
       <c r="AP221" s="125"/>
       <c r="AQ221" s="125"/>
     </row>
-    <row r="222" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="27" t="n">
         <v>221</v>
       </c>
@@ -22300,7 +22301,7 @@
       <c r="AP222" s="125"/>
       <c r="AQ222" s="125"/>
     </row>
-    <row r="223" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="27" t="n">
         <v>222</v>
       </c>
@@ -22371,7 +22372,7 @@
       <c r="AP223" s="125"/>
       <c r="AQ223" s="125"/>
     </row>
-    <row r="224" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="27" t="n">
         <v>223</v>
       </c>
@@ -22444,7 +22445,7 @@
       <c r="AP224" s="125"/>
       <c r="AQ224" s="125"/>
     </row>
-    <row r="225" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="27" t="n">
         <v>224</v>
       </c>
@@ -22517,7 +22518,7 @@
       <c r="AP225" s="125"/>
       <c r="AQ225" s="125"/>
     </row>
-    <row r="226" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="27" t="n">
         <v>225</v>
       </c>
@@ -22590,7 +22591,7 @@
       <c r="AP226" s="125"/>
       <c r="AQ226" s="125"/>
     </row>
-    <row r="227" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="27" t="n">
         <v>226</v>
       </c>
@@ -22663,7 +22664,7 @@
       <c r="AP227" s="125"/>
       <c r="AQ227" s="125"/>
     </row>
-    <row r="228" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="27" t="n">
         <v>227</v>
       </c>
@@ -22740,7 +22741,7 @@
       <c r="AP228" s="125"/>
       <c r="AQ228" s="125"/>
     </row>
-    <row r="229" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="27" t="n">
         <v>228</v>
       </c>
@@ -22817,7 +22818,7 @@
       <c r="AP229" s="125"/>
       <c r="AQ229" s="125"/>
     </row>
-    <row r="230" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="27" t="n">
         <v>229</v>
       </c>
@@ -22894,7 +22895,7 @@
       <c r="AP230" s="125"/>
       <c r="AQ230" s="125"/>
     </row>
-    <row r="231" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="27" t="n">
         <v>230</v>
       </c>
@@ -22971,7 +22972,7 @@
       <c r="AP231" s="125"/>
       <c r="AQ231" s="125"/>
     </row>
-    <row r="232" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="27" t="n">
         <v>231</v>
       </c>
@@ -23048,7 +23049,7 @@
       <c r="AP232" s="125"/>
       <c r="AQ232" s="125"/>
     </row>
-    <row r="233" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="27" t="n">
         <v>232</v>
       </c>
@@ -23125,7 +23126,7 @@
       <c r="AP233" s="125"/>
       <c r="AQ233" s="125"/>
     </row>
-    <row r="234" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="27" t="n">
         <v>233</v>
       </c>
@@ -23204,14 +23205,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AR234">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="65"/>
-        <filter val="165"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AR234"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -23236,7 +23230,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23273,7 +23267,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
